--- a/observeddata/Ebola_Incidence_Data.xlsx
+++ b/observeddata/Ebola_Incidence_Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\twhit957\Desktop\spatialEpisim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\twhit957\Desktop\spatialEpisim\observeddata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FEFB06-9C98-4105-B5BB-C0A5B80B5640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F47241-311A-4F05-BF93-FA83A47C89C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>SitReptNo.</t>
   </si>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>Tchomia</t>
-  </si>
-  <si>
-    <t>Mwenga</t>
   </si>
 </sst>
 </file>
@@ -557,13 +554,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AF1048"/>
+  <dimension ref="A1:AE1048"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="AE1" sqref="AE1:AE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -597,12 +594,11 @@
     <col min="28" max="28" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="12.5703125" style="2"/>
+    <col min="31" max="31" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="12.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -693,12 +689,9 @@
       <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1"/>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE1" s="1"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -789,12 +782,9 @@
       <c r="AD2" s="3">
         <v>0</v>
       </c>
-      <c r="AE2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="1"/>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE2" s="1"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -885,12 +875,9 @@
       <c r="AD3" s="3">
         <v>0</v>
       </c>
-      <c r="AE3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="1"/>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE3" s="1"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -981,12 +968,9 @@
       <c r="AD4" s="3">
         <v>0</v>
       </c>
-      <c r="AE4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="1"/>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE4" s="1"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1077,12 +1061,9 @@
       <c r="AD5" s="3">
         <v>0</v>
       </c>
-      <c r="AE5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="1"/>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE5" s="1"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1173,12 +1154,9 @@
       <c r="AD6" s="3">
         <v>0</v>
       </c>
-      <c r="AE6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="1"/>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE6" s="1"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1269,12 +1247,9 @@
       <c r="AD7" s="3">
         <v>0</v>
       </c>
-      <c r="AE7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="1"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE7" s="1"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1365,12 +1340,9 @@
       <c r="AD8" s="3">
         <v>0</v>
       </c>
-      <c r="AE8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="1"/>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE8" s="1"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1461,12 +1433,9 @@
       <c r="AD9" s="3">
         <v>2</v>
       </c>
-      <c r="AE9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="1"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE9" s="1"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1557,12 +1526,9 @@
       <c r="AD10" s="3">
         <v>0</v>
       </c>
-      <c r="AE10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="1"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE10" s="1"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1653,12 +1619,9 @@
       <c r="AD11" s="3">
         <v>0</v>
       </c>
-      <c r="AE11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="1"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE11" s="1"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1749,12 +1712,9 @@
       <c r="AD12" s="3">
         <v>0</v>
       </c>
-      <c r="AE12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="1"/>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE12" s="1"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1845,12 +1805,9 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-      <c r="AE13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="1"/>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE13" s="1"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1941,12 +1898,9 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-      <c r="AE14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="1"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE14" s="1"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2037,12 +1991,9 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-      <c r="AE15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="1"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE15" s="1"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2133,12 +2084,9 @@
       <c r="AD16" s="3">
         <v>0</v>
       </c>
-      <c r="AE16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="1"/>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE16" s="1"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2229,12 +2177,9 @@
       <c r="AD17" s="3">
         <v>0</v>
       </c>
-      <c r="AE17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="1"/>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE17" s="1"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2325,12 +2270,9 @@
       <c r="AD18" s="3">
         <v>0</v>
       </c>
-      <c r="AE18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="1"/>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE18" s="1"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2421,12 +2363,9 @@
       <c r="AD19" s="3">
         <v>0</v>
       </c>
-      <c r="AE19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="1"/>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE19" s="1"/>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2517,12 +2456,9 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-      <c r="AE20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="1"/>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE20" s="1"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2613,12 +2549,9 @@
       <c r="AD21" s="3">
         <v>0</v>
       </c>
-      <c r="AE21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="1"/>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE21" s="1"/>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2709,12 +2642,9 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-      <c r="AE22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="1"/>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE22" s="1"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2805,12 +2735,9 @@
       <c r="AD23" s="3">
         <v>0</v>
       </c>
-      <c r="AE23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="1"/>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE23" s="1"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2901,12 +2828,9 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-      <c r="AE24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="1"/>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE24" s="1"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2997,12 +2921,9 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-      <c r="AE25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="1"/>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE25" s="1"/>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -3093,12 +3014,9 @@
       <c r="AD26" s="3">
         <v>0</v>
       </c>
-      <c r="AE26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF26" s="1"/>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE26" s="1"/>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -3189,12 +3107,9 @@
       <c r="AD27" s="3">
         <v>0</v>
       </c>
-      <c r="AE27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="1"/>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE27" s="1"/>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -3285,12 +3200,9 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-      <c r="AE28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF28" s="1"/>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE28" s="1"/>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -3381,12 +3293,9 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-      <c r="AE29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF29" s="1"/>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE29" s="1"/>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -3477,12 +3386,9 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-      <c r="AE30" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF30" s="1"/>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE30" s="1"/>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -3573,12 +3479,9 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-      <c r="AE31" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF31" s="1"/>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE31" s="1"/>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -3669,12 +3572,9 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-      <c r="AE32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF32" s="1"/>
-    </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE32" s="1"/>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -3765,12 +3665,9 @@
       <c r="AD33" s="3">
         <v>0</v>
       </c>
-      <c r="AE33" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF33" s="1"/>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE33" s="1"/>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -3861,12 +3758,9 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-      <c r="AE34" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF34" s="1"/>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE34" s="1"/>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -3957,12 +3851,9 @@
       <c r="AD35" s="3">
         <v>0</v>
       </c>
-      <c r="AE35" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF35" s="1"/>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE35" s="1"/>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -4053,12 +3944,9 @@
       <c r="AD36" s="3">
         <v>0</v>
       </c>
-      <c r="AE36" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF36" s="1"/>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE36" s="1"/>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -4149,12 +4037,9 @@
       <c r="AD37" s="3">
         <v>1</v>
       </c>
-      <c r="AE37" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF37" s="1"/>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE37" s="1"/>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -4245,12 +4130,9 @@
       <c r="AD38" s="3">
         <v>0</v>
       </c>
-      <c r="AE38" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF38" s="1"/>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE38" s="1"/>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -4341,12 +4223,9 @@
       <c r="AD39" s="3">
         <v>0</v>
       </c>
-      <c r="AE39" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF39" s="1"/>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE39" s="1"/>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -4437,12 +4316,9 @@
       <c r="AD40" s="3">
         <v>0</v>
       </c>
-      <c r="AE40" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF40" s="1"/>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE40" s="1"/>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -4533,12 +4409,9 @@
       <c r="AD41" s="3">
         <v>0</v>
       </c>
-      <c r="AE41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF41" s="1"/>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE41" s="1"/>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -4629,12 +4502,9 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-      <c r="AE42" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="1"/>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE42" s="1"/>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -4725,12 +4595,9 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-      <c r="AE43" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF43" s="1"/>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE43" s="1"/>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -4821,12 +4688,9 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-      <c r="AE44" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF44" s="1"/>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE44" s="1"/>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -4917,12 +4781,9 @@
       <c r="AD45" s="5">
         <v>0</v>
       </c>
-      <c r="AE45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF45" s="1"/>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE45" s="1"/>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -5013,12 +4874,9 @@
       <c r="AD46" s="5">
         <v>0</v>
       </c>
-      <c r="AE46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF46" s="1"/>
-    </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE46" s="1"/>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -5109,12 +4967,9 @@
       <c r="AD47" s="5">
         <v>0</v>
       </c>
-      <c r="AE47" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF47" s="1"/>
-    </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE47" s="1"/>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -5205,12 +5060,9 @@
       <c r="AD48" s="5">
         <v>0</v>
       </c>
-      <c r="AE48" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF48" s="1"/>
-    </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE48" s="1"/>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -5301,12 +5153,9 @@
       <c r="AD49" s="5">
         <v>0</v>
       </c>
-      <c r="AE49" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF49" s="1"/>
-    </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE49" s="1"/>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -5397,12 +5246,9 @@
       <c r="AD50" s="5">
         <v>0</v>
       </c>
-      <c r="AE50" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF50" s="1"/>
-    </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE50" s="1"/>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -5493,12 +5339,9 @@
       <c r="AD51" s="5">
         <v>0</v>
       </c>
-      <c r="AE51" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF51" s="1"/>
-    </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE51" s="1"/>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -5589,12 +5432,9 @@
       <c r="AD52" s="5">
         <v>0</v>
       </c>
-      <c r="AE52" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF52" s="1"/>
-    </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE52" s="1"/>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -5685,12 +5525,9 @@
       <c r="AD53" s="5">
         <v>0</v>
       </c>
-      <c r="AE53" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF53" s="1"/>
-    </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE53" s="1"/>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -5781,12 +5618,9 @@
       <c r="AD54" s="3">
         <v>0</v>
       </c>
-      <c r="AE54" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF54" s="1"/>
-    </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE54" s="1"/>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -5877,12 +5711,9 @@
       <c r="AD55" s="3">
         <v>0</v>
       </c>
-      <c r="AE55" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF55" s="1"/>
-    </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE55" s="1"/>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -5973,12 +5804,9 @@
       <c r="AD56" s="6">
         <v>0</v>
       </c>
-      <c r="AE56" s="6">
-        <v>3</v>
-      </c>
-      <c r="AF56" s="1"/>
-    </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE56" s="1"/>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -6069,12 +5897,9 @@
       <c r="AD57" s="6">
         <v>0</v>
       </c>
-      <c r="AE57" s="6">
-        <v>1</v>
-      </c>
-      <c r="AF57" s="1"/>
-    </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE57" s="1"/>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -6165,12 +5990,9 @@
       <c r="AD58" s="6">
         <v>0</v>
       </c>
-      <c r="AE58" s="6">
-        <v>2</v>
-      </c>
-      <c r="AF58" s="1"/>
-    </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE58" s="1"/>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -6261,12 +6083,9 @@
       <c r="AD59" s="6">
         <v>0</v>
       </c>
-      <c r="AE59" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF59" s="1"/>
-    </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE59" s="1"/>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -6357,12 +6176,9 @@
       <c r="AD60" s="6">
         <v>0</v>
       </c>
-      <c r="AE60" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF60" s="1"/>
-    </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE60" s="1"/>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -6453,12 +6269,9 @@
       <c r="AD61" s="6">
         <v>0</v>
       </c>
-      <c r="AE61" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF61" s="1"/>
-    </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE61" s="1"/>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -6549,12 +6362,9 @@
       <c r="AD62" s="6">
         <v>0</v>
       </c>
-      <c r="AE62" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF62" s="1"/>
-    </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE62" s="1"/>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -6645,12 +6455,9 @@
       <c r="AD63" s="6">
         <v>0</v>
       </c>
-      <c r="AE63" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF63" s="1"/>
-    </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE63" s="1"/>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -6741,12 +6548,9 @@
       <c r="AD64" s="6">
         <v>0</v>
       </c>
-      <c r="AE64" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF64" s="1"/>
-    </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE64" s="1"/>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -6837,12 +6641,9 @@
       <c r="AD65" s="6">
         <v>0</v>
       </c>
-      <c r="AE65" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF65" s="1"/>
-    </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE65" s="1"/>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -6933,12 +6734,9 @@
       <c r="AD66" s="6">
         <v>0</v>
       </c>
-      <c r="AE66" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF66" s="1"/>
-    </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE66" s="1"/>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -7029,12 +6827,9 @@
       <c r="AD67" s="6">
         <v>0</v>
       </c>
-      <c r="AE67" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF67" s="1"/>
-    </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE67" s="1"/>
+    </row>
+    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -7125,12 +6920,9 @@
       <c r="AD68" s="6">
         <v>0</v>
       </c>
-      <c r="AE68" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF68" s="1"/>
-    </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE68" s="1"/>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -7221,12 +7013,9 @@
       <c r="AD69" s="6">
         <v>0</v>
       </c>
-      <c r="AE69" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF69" s="1"/>
-    </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE69" s="1"/>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -7317,12 +7106,9 @@
       <c r="AD70" s="6">
         <v>0</v>
       </c>
-      <c r="AE70" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF70" s="1"/>
-    </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE70" s="1"/>
+    </row>
+    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -7413,12 +7199,9 @@
       <c r="AD71" s="6">
         <v>0</v>
       </c>
-      <c r="AE71" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF71" s="1"/>
-    </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE71" s="1"/>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -7509,12 +7292,9 @@
       <c r="AD72" s="6">
         <v>0</v>
       </c>
-      <c r="AE72" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF72" s="1"/>
-    </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE72" s="1"/>
+    </row>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -7605,12 +7385,9 @@
       <c r="AD73" s="6">
         <v>0</v>
       </c>
-      <c r="AE73" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF73" s="1"/>
-    </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE73" s="1"/>
+    </row>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -7701,12 +7478,9 @@
       <c r="AD74" s="6">
         <v>0</v>
       </c>
-      <c r="AE74" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF74" s="1"/>
-    </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE74" s="1"/>
+    </row>
+    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -7797,12 +7571,9 @@
       <c r="AD75" s="6">
         <v>0</v>
       </c>
-      <c r="AE75" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF75" s="1"/>
-    </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE75" s="1"/>
+    </row>
+    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -7893,12 +7664,9 @@
       <c r="AD76" s="6">
         <v>0</v>
       </c>
-      <c r="AE76" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF76" s="1"/>
-    </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE76" s="1"/>
+    </row>
+    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="7"/>
@@ -7929,10 +7697,9 @@
       <c r="AB77" s="7"/>
       <c r="AC77" s="7"/>
       <c r="AD77" s="7"/>
-      <c r="AE77" s="7"/>
-      <c r="AF77" s="1"/>
-    </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE77" s="1"/>
+    </row>
+    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="7"/>
@@ -7963,10 +7730,9 @@
       <c r="AB78" s="7"/>
       <c r="AC78" s="7"/>
       <c r="AD78" s="7"/>
-      <c r="AE78" s="7"/>
-      <c r="AF78" s="1"/>
-    </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE78" s="1"/>
+    </row>
+    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="7"/>
@@ -7997,10 +7763,9 @@
       <c r="AB79" s="7"/>
       <c r="AC79" s="7"/>
       <c r="AD79" s="7"/>
-      <c r="AE79" s="7"/>
-      <c r="AF79" s="1"/>
-    </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE79" s="1"/>
+    </row>
+    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="7"/>
@@ -8031,10 +7796,9 @@
       <c r="AB80" s="7"/>
       <c r="AC80" s="7"/>
       <c r="AD80" s="7"/>
-      <c r="AE80" s="7"/>
-      <c r="AF80" s="1"/>
-    </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE80" s="1"/>
+    </row>
+    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="7"/>
@@ -8065,10 +7829,9 @@
       <c r="AB81" s="7"/>
       <c r="AC81" s="7"/>
       <c r="AD81" s="7"/>
-      <c r="AE81" s="7"/>
-      <c r="AF81" s="1"/>
-    </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE81" s="1"/>
+    </row>
+    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="7"/>
@@ -8099,10 +7862,9 @@
       <c r="AB82" s="7"/>
       <c r="AC82" s="7"/>
       <c r="AD82" s="7"/>
-      <c r="AE82" s="7"/>
-      <c r="AF82" s="1"/>
-    </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE82" s="1"/>
+    </row>
+    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="7"/>
@@ -8133,10 +7895,9 @@
       <c r="AB83" s="7"/>
       <c r="AC83" s="7"/>
       <c r="AD83" s="7"/>
-      <c r="AE83" s="7"/>
-      <c r="AF83" s="1"/>
-    </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE83" s="1"/>
+    </row>
+    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="7"/>
@@ -8167,10 +7928,9 @@
       <c r="AB84" s="7"/>
       <c r="AC84" s="7"/>
       <c r="AD84" s="7"/>
-      <c r="AE84" s="7"/>
-      <c r="AF84" s="1"/>
-    </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE84" s="1"/>
+    </row>
+    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="7"/>
@@ -8201,10 +7961,9 @@
       <c r="AB85" s="7"/>
       <c r="AC85" s="7"/>
       <c r="AD85" s="7"/>
-      <c r="AE85" s="7"/>
-      <c r="AF85" s="1"/>
-    </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE85" s="1"/>
+    </row>
+    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="7"/>
@@ -8235,10 +7994,9 @@
       <c r="AB86" s="7"/>
       <c r="AC86" s="7"/>
       <c r="AD86" s="7"/>
-      <c r="AE86" s="7"/>
-      <c r="AF86" s="1"/>
-    </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE86" s="1"/>
+    </row>
+    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="7"/>
@@ -8269,10 +8027,9 @@
       <c r="AB87" s="7"/>
       <c r="AC87" s="7"/>
       <c r="AD87" s="7"/>
-      <c r="AE87" s="7"/>
-      <c r="AF87" s="1"/>
-    </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE87" s="1"/>
+    </row>
+    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="7"/>
@@ -8303,10 +8060,9 @@
       <c r="AB88" s="7"/>
       <c r="AC88" s="7"/>
       <c r="AD88" s="7"/>
-      <c r="AE88" s="7"/>
-      <c r="AF88" s="1"/>
-    </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE88" s="1"/>
+    </row>
+    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="7"/>
@@ -8337,10 +8093,9 @@
       <c r="AB89" s="7"/>
       <c r="AC89" s="7"/>
       <c r="AD89" s="7"/>
-      <c r="AE89" s="7"/>
-      <c r="AF89" s="1"/>
-    </row>
-    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE89" s="1"/>
+    </row>
+    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="7"/>
@@ -8371,10 +8126,9 @@
       <c r="AB90" s="7"/>
       <c r="AC90" s="7"/>
       <c r="AD90" s="7"/>
-      <c r="AE90" s="7"/>
-      <c r="AF90" s="1"/>
-    </row>
-    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE90" s="1"/>
+    </row>
+    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="7"/>
@@ -8405,10 +8159,9 @@
       <c r="AB91" s="7"/>
       <c r="AC91" s="7"/>
       <c r="AD91" s="7"/>
-      <c r="AE91" s="7"/>
-      <c r="AF91" s="1"/>
-    </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE91" s="1"/>
+    </row>
+    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="7"/>
@@ -8439,10 +8192,9 @@
       <c r="AB92" s="7"/>
       <c r="AC92" s="7"/>
       <c r="AD92" s="7"/>
-      <c r="AE92" s="7"/>
-      <c r="AF92" s="1"/>
-    </row>
-    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE92" s="1"/>
+    </row>
+    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="7"/>
@@ -8473,10 +8225,9 @@
       <c r="AB93" s="7"/>
       <c r="AC93" s="7"/>
       <c r="AD93" s="7"/>
-      <c r="AE93" s="7"/>
-      <c r="AF93" s="1"/>
-    </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE93" s="1"/>
+    </row>
+    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="7"/>
@@ -8507,10 +8258,9 @@
       <c r="AB94" s="7"/>
       <c r="AC94" s="7"/>
       <c r="AD94" s="7"/>
-      <c r="AE94" s="7"/>
-      <c r="AF94" s="1"/>
-    </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE94" s="1"/>
+    </row>
+    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="7"/>
@@ -8541,10 +8291,9 @@
       <c r="AB95" s="7"/>
       <c r="AC95" s="7"/>
       <c r="AD95" s="7"/>
-      <c r="AE95" s="7"/>
-      <c r="AF95" s="1"/>
-    </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE95" s="1"/>
+    </row>
+    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="7"/>
@@ -8575,10 +8324,9 @@
       <c r="AB96" s="7"/>
       <c r="AC96" s="7"/>
       <c r="AD96" s="7"/>
-      <c r="AE96" s="7"/>
-      <c r="AF96" s="1"/>
-    </row>
-    <row r="97" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE96" s="1"/>
+    </row>
+    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="7"/>
@@ -8609,10 +8357,9 @@
       <c r="AB97" s="7"/>
       <c r="AC97" s="7"/>
       <c r="AD97" s="7"/>
-      <c r="AE97" s="7"/>
-      <c r="AF97" s="1"/>
-    </row>
-    <row r="98" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE97" s="1"/>
+    </row>
+    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="7"/>
@@ -8643,10 +8390,9 @@
       <c r="AB98" s="7"/>
       <c r="AC98" s="7"/>
       <c r="AD98" s="7"/>
-      <c r="AE98" s="7"/>
-      <c r="AF98" s="1"/>
-    </row>
-    <row r="99" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE98" s="1"/>
+    </row>
+    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="7"/>
@@ -8677,10 +8423,9 @@
       <c r="AB99" s="7"/>
       <c r="AC99" s="7"/>
       <c r="AD99" s="7"/>
-      <c r="AE99" s="7"/>
-      <c r="AF99" s="1"/>
-    </row>
-    <row r="100" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE99" s="1"/>
+    </row>
+    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="7"/>
@@ -8711,2852 +8456,2851 @@
       <c r="AB100" s="7"/>
       <c r="AC100" s="7"/>
       <c r="AD100" s="7"/>
-      <c r="AE100" s="7"/>
-      <c r="AF100" s="1"/>
-    </row>
-    <row r="101" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF101" s="8"/>
-    </row>
-    <row r="102" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF102" s="8"/>
-    </row>
-    <row r="103" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF103" s="8"/>
-    </row>
-    <row r="104" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF104" s="8"/>
-    </row>
-    <row r="105" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF105" s="8"/>
-    </row>
-    <row r="106" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF106" s="8"/>
-    </row>
-    <row r="107" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF107" s="8"/>
-    </row>
-    <row r="108" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF108" s="8"/>
-    </row>
-    <row r="109" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF109" s="8"/>
-    </row>
-    <row r="110" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF110" s="8"/>
-    </row>
-    <row r="111" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF111" s="8"/>
-    </row>
-    <row r="112" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF112" s="8"/>
-    </row>
-    <row r="113" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF113" s="8"/>
-    </row>
-    <row r="114" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF114" s="8"/>
-    </row>
-    <row r="115" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF115" s="8"/>
-    </row>
-    <row r="116" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF116" s="8"/>
-    </row>
-    <row r="117" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF117" s="8"/>
-    </row>
-    <row r="118" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF118" s="8"/>
-    </row>
-    <row r="119" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF119" s="8"/>
-    </row>
-    <row r="120" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF120" s="8"/>
-    </row>
-    <row r="121" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF121" s="8"/>
-    </row>
-    <row r="122" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF122" s="8"/>
-    </row>
-    <row r="123" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF123" s="8"/>
-    </row>
-    <row r="124" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF124" s="8"/>
-    </row>
-    <row r="125" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF125" s="8"/>
-    </row>
-    <row r="126" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF126" s="8"/>
-    </row>
-    <row r="127" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF127" s="8"/>
-    </row>
-    <row r="128" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF128" s="8"/>
-    </row>
-    <row r="129" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF129" s="8"/>
-    </row>
-    <row r="130" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF130" s="8"/>
-    </row>
-    <row r="131" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF131" s="8"/>
-    </row>
-    <row r="132" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF132" s="8"/>
-    </row>
-    <row r="133" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF133" s="8"/>
-    </row>
-    <row r="134" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF134" s="8"/>
-    </row>
-    <row r="135" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF135" s="8"/>
-    </row>
-    <row r="136" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF136" s="8"/>
-    </row>
-    <row r="137" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF137" s="8"/>
-    </row>
-    <row r="138" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF138" s="8"/>
-    </row>
-    <row r="139" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF139" s="8"/>
-    </row>
-    <row r="140" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF140" s="8"/>
-    </row>
-    <row r="141" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF141" s="8"/>
-    </row>
-    <row r="142" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF142" s="8"/>
-    </row>
-    <row r="143" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF143" s="8"/>
-    </row>
-    <row r="144" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF144" s="8"/>
-    </row>
-    <row r="145" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF145" s="8"/>
-    </row>
-    <row r="146" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF146" s="8"/>
-    </row>
-    <row r="147" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF147" s="8"/>
-    </row>
-    <row r="148" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF148" s="8"/>
-    </row>
-    <row r="149" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF149" s="8"/>
-    </row>
-    <row r="150" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF150" s="8"/>
-    </row>
-    <row r="151" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF151" s="8"/>
-    </row>
-    <row r="152" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF152" s="8"/>
-    </row>
-    <row r="153" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF153" s="8"/>
-    </row>
-    <row r="154" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF154" s="8"/>
-    </row>
-    <row r="155" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF155" s="8"/>
-    </row>
-    <row r="156" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF156" s="8"/>
-    </row>
-    <row r="157" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF157" s="8"/>
-    </row>
-    <row r="158" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF158" s="8"/>
-    </row>
-    <row r="159" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF159" s="8"/>
-    </row>
-    <row r="160" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF160" s="8"/>
-    </row>
-    <row r="161" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF161" s="8"/>
-    </row>
-    <row r="162" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF162" s="8"/>
-    </row>
-    <row r="163" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF163" s="8"/>
-    </row>
-    <row r="164" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF164" s="8"/>
-    </row>
-    <row r="165" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF165" s="8"/>
-    </row>
-    <row r="166" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF166" s="8"/>
-    </row>
-    <row r="167" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF167" s="8"/>
-    </row>
-    <row r="168" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF168" s="8"/>
-    </row>
-    <row r="169" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF169" s="8"/>
-    </row>
-    <row r="170" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF170" s="8"/>
-    </row>
-    <row r="171" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF171" s="8"/>
-    </row>
-    <row r="172" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF172" s="8"/>
-    </row>
-    <row r="173" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF173" s="8"/>
-    </row>
-    <row r="174" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF174" s="8"/>
-    </row>
-    <row r="175" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF175" s="8"/>
-    </row>
-    <row r="176" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF176" s="8"/>
-    </row>
-    <row r="177" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF177" s="8"/>
-    </row>
-    <row r="178" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF178" s="8"/>
-    </row>
-    <row r="179" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF179" s="8"/>
-    </row>
-    <row r="180" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF180" s="8"/>
-    </row>
-    <row r="181" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF181" s="8"/>
-    </row>
-    <row r="182" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF182" s="8"/>
-    </row>
-    <row r="183" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF183" s="8"/>
-    </row>
-    <row r="184" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF184" s="8"/>
-    </row>
-    <row r="185" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF185" s="8"/>
-    </row>
-    <row r="186" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF186" s="8"/>
-    </row>
-    <row r="187" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF187" s="8"/>
-    </row>
-    <row r="188" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF188" s="8"/>
-    </row>
-    <row r="189" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF189" s="8"/>
-    </row>
-    <row r="190" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF190" s="8"/>
-    </row>
-    <row r="191" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF191" s="8"/>
-    </row>
-    <row r="192" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF192" s="8"/>
-    </row>
-    <row r="193" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF193" s="8"/>
-    </row>
-    <row r="194" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF194" s="8"/>
-    </row>
-    <row r="195" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF195" s="8"/>
-    </row>
-    <row r="196" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF196" s="8"/>
-    </row>
-    <row r="197" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF197" s="8"/>
-    </row>
-    <row r="198" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF198" s="8"/>
-    </row>
-    <row r="199" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF199" s="8"/>
-    </row>
-    <row r="200" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF200" s="8"/>
-    </row>
-    <row r="201" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF201" s="8"/>
-    </row>
-    <row r="202" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF202" s="8"/>
-    </row>
-    <row r="203" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF203" s="8"/>
-    </row>
-    <row r="204" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF204" s="8"/>
-    </row>
-    <row r="205" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF205" s="8"/>
-    </row>
-    <row r="206" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF206" s="8"/>
-    </row>
-    <row r="207" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF207" s="8"/>
-    </row>
-    <row r="208" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF208" s="8"/>
-    </row>
-    <row r="209" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF209" s="8"/>
-    </row>
-    <row r="210" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF210" s="8"/>
-    </row>
-    <row r="211" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF211" s="8"/>
-    </row>
-    <row r="212" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF212" s="8"/>
-    </row>
-    <row r="213" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF213" s="8"/>
-    </row>
-    <row r="214" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF214" s="8"/>
-    </row>
-    <row r="215" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF215" s="8"/>
-    </row>
-    <row r="216" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF216" s="8"/>
-    </row>
-    <row r="217" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF217" s="8"/>
-    </row>
-    <row r="218" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF218" s="8"/>
-    </row>
-    <row r="219" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF219" s="8"/>
-    </row>
-    <row r="220" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF220" s="8"/>
-    </row>
-    <row r="221" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF221" s="8"/>
-    </row>
-    <row r="222" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF222" s="8"/>
-    </row>
-    <row r="223" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF223" s="8"/>
-    </row>
-    <row r="224" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF224" s="8"/>
-    </row>
-    <row r="225" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF225" s="8"/>
-    </row>
-    <row r="226" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF226" s="8"/>
-    </row>
-    <row r="227" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF227" s="8"/>
-    </row>
-    <row r="228" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF228" s="8"/>
-    </row>
-    <row r="229" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF229" s="8"/>
-    </row>
-    <row r="230" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF230" s="8"/>
-    </row>
-    <row r="231" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF231" s="8"/>
-    </row>
-    <row r="232" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF232" s="8"/>
-    </row>
-    <row r="233" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF233" s="8"/>
-    </row>
-    <row r="234" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF234" s="8"/>
-    </row>
-    <row r="235" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF235" s="8"/>
-    </row>
-    <row r="236" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF236" s="8"/>
-    </row>
-    <row r="237" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF237" s="8"/>
-    </row>
-    <row r="238" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF238" s="8"/>
-    </row>
-    <row r="239" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF239" s="8"/>
-    </row>
-    <row r="240" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF240" s="8"/>
-    </row>
-    <row r="241" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF241" s="8"/>
-    </row>
-    <row r="242" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF242" s="8"/>
-    </row>
-    <row r="243" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF243" s="8"/>
-    </row>
-    <row r="244" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF244" s="8"/>
-    </row>
-    <row r="245" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF245" s="8"/>
-    </row>
-    <row r="246" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF246" s="8"/>
-    </row>
-    <row r="247" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF247" s="8"/>
-    </row>
-    <row r="248" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF248" s="8"/>
-    </row>
-    <row r="249" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF249" s="8"/>
-    </row>
-    <row r="250" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF250" s="8"/>
-    </row>
-    <row r="251" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF251" s="8"/>
-    </row>
-    <row r="252" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF252" s="8"/>
-    </row>
-    <row r="253" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF253" s="8"/>
-    </row>
-    <row r="254" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF254" s="8"/>
-    </row>
-    <row r="255" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF255" s="8"/>
-    </row>
-    <row r="256" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF256" s="8"/>
-    </row>
-    <row r="257" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF257" s="8"/>
-    </row>
-    <row r="258" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF258" s="8"/>
-    </row>
-    <row r="259" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF259" s="8"/>
-    </row>
-    <row r="260" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF260" s="8"/>
-    </row>
-    <row r="261" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF261" s="8"/>
-    </row>
-    <row r="262" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF262" s="8"/>
-    </row>
-    <row r="263" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF263" s="8"/>
-    </row>
-    <row r="264" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF264" s="8"/>
-    </row>
-    <row r="265" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF265" s="8"/>
-    </row>
-    <row r="266" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF266" s="8"/>
-    </row>
-    <row r="267" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF267" s="8"/>
-    </row>
-    <row r="268" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF268" s="8"/>
-    </row>
-    <row r="269" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF269" s="8"/>
-    </row>
-    <row r="270" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF270" s="8"/>
-    </row>
-    <row r="271" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF271" s="8"/>
-    </row>
-    <row r="272" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF272" s="8"/>
-    </row>
-    <row r="273" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF273" s="8"/>
-    </row>
-    <row r="274" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF274" s="8"/>
-    </row>
-    <row r="275" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF275" s="8"/>
-    </row>
-    <row r="276" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF276" s="8"/>
-    </row>
-    <row r="277" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF277" s="8"/>
-    </row>
-    <row r="278" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF278" s="8"/>
-    </row>
-    <row r="279" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF279" s="8"/>
-    </row>
-    <row r="280" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF280" s="8"/>
-    </row>
-    <row r="281" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF281" s="8"/>
-    </row>
-    <row r="282" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF282" s="8"/>
-    </row>
-    <row r="283" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF283" s="8"/>
-    </row>
-    <row r="284" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF284" s="8"/>
-    </row>
-    <row r="285" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF285" s="8"/>
-    </row>
-    <row r="286" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF286" s="8"/>
-    </row>
-    <row r="287" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF287" s="8"/>
-    </row>
-    <row r="288" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF288" s="8"/>
-    </row>
-    <row r="289" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF289" s="8"/>
-    </row>
-    <row r="290" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF290" s="8"/>
-    </row>
-    <row r="291" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF291" s="8"/>
-    </row>
-    <row r="292" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF292" s="8"/>
-    </row>
-    <row r="293" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF293" s="8"/>
-    </row>
-    <row r="294" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF294" s="8"/>
-    </row>
-    <row r="295" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF295" s="8"/>
-    </row>
-    <row r="296" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF296" s="8"/>
-    </row>
-    <row r="297" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF297" s="8"/>
-    </row>
-    <row r="298" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF298" s="8"/>
-    </row>
-    <row r="299" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF299" s="8"/>
-    </row>
-    <row r="300" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF300" s="8"/>
-    </row>
-    <row r="301" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF301" s="8"/>
-    </row>
-    <row r="302" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF302" s="8"/>
-    </row>
-    <row r="303" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF303" s="8"/>
-    </row>
-    <row r="304" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF304" s="8"/>
-    </row>
-    <row r="305" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF305" s="8"/>
-    </row>
-    <row r="306" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF306" s="8"/>
-    </row>
-    <row r="307" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF307" s="8"/>
-    </row>
-    <row r="308" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF308" s="8"/>
-    </row>
-    <row r="309" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF309" s="8"/>
-    </row>
-    <row r="310" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF310" s="8"/>
-    </row>
-    <row r="311" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF311" s="8"/>
-    </row>
-    <row r="312" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF312" s="8"/>
-    </row>
-    <row r="313" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF313" s="8"/>
-    </row>
-    <row r="314" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF314" s="8"/>
-    </row>
-    <row r="315" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF315" s="8"/>
-    </row>
-    <row r="316" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF316" s="8"/>
-    </row>
-    <row r="317" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF317" s="8"/>
-    </row>
-    <row r="318" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF318" s="8"/>
-    </row>
-    <row r="319" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF319" s="8"/>
-    </row>
-    <row r="320" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF320" s="8"/>
-    </row>
-    <row r="321" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF321" s="8"/>
-    </row>
-    <row r="322" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF322" s="8"/>
-    </row>
-    <row r="323" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF323" s="8"/>
-    </row>
-    <row r="324" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF324" s="8"/>
-    </row>
-    <row r="325" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF325" s="8"/>
-    </row>
-    <row r="326" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF326" s="8"/>
-    </row>
-    <row r="327" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF327" s="8"/>
-    </row>
-    <row r="328" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF328" s="8"/>
-    </row>
-    <row r="329" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF329" s="8"/>
-    </row>
-    <row r="330" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF330" s="8"/>
-    </row>
-    <row r="331" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF331" s="8"/>
-    </row>
-    <row r="332" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF332" s="8"/>
-    </row>
-    <row r="333" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF333" s="8"/>
-    </row>
-    <row r="334" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF334" s="8"/>
-    </row>
-    <row r="335" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF335" s="8"/>
-    </row>
-    <row r="336" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF336" s="8"/>
-    </row>
-    <row r="337" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF337" s="8"/>
-    </row>
-    <row r="338" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF338" s="8"/>
-    </row>
-    <row r="339" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF339" s="8"/>
-    </row>
-    <row r="340" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF340" s="8"/>
-    </row>
-    <row r="341" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF341" s="8"/>
-    </row>
-    <row r="342" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF342" s="8"/>
-    </row>
-    <row r="343" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF343" s="8"/>
-    </row>
-    <row r="344" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF344" s="8"/>
-    </row>
-    <row r="345" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF345" s="8"/>
-    </row>
-    <row r="346" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF346" s="8"/>
-    </row>
-    <row r="347" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF347" s="8"/>
-    </row>
-    <row r="348" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF348" s="8"/>
-    </row>
-    <row r="349" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF349" s="8"/>
-    </row>
-    <row r="350" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF350" s="8"/>
-    </row>
-    <row r="351" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF351" s="8"/>
-    </row>
-    <row r="352" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF352" s="8"/>
-    </row>
-    <row r="353" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF353" s="8"/>
-    </row>
-    <row r="354" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF354" s="8"/>
-    </row>
-    <row r="355" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF355" s="8"/>
-    </row>
-    <row r="356" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF356" s="8"/>
-    </row>
-    <row r="357" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF357" s="8"/>
-    </row>
-    <row r="358" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF358" s="8"/>
-    </row>
-    <row r="359" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF359" s="8"/>
-    </row>
-    <row r="360" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF360" s="8"/>
-    </row>
-    <row r="361" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF361" s="8"/>
-    </row>
-    <row r="362" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF362" s="8"/>
-    </row>
-    <row r="363" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF363" s="8"/>
-    </row>
-    <row r="364" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF364" s="8"/>
-    </row>
-    <row r="365" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF365" s="8"/>
-    </row>
-    <row r="366" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF366" s="8"/>
-    </row>
-    <row r="367" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF367" s="8"/>
-    </row>
-    <row r="368" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF368" s="8"/>
-    </row>
-    <row r="369" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF369" s="8"/>
-    </row>
-    <row r="370" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF370" s="8"/>
-    </row>
-    <row r="371" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF371" s="8"/>
-    </row>
-    <row r="372" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF372" s="8"/>
-    </row>
-    <row r="373" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF373" s="8"/>
-    </row>
-    <row r="374" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF374" s="8"/>
-    </row>
-    <row r="375" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF375" s="8"/>
-    </row>
-    <row r="376" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF376" s="8"/>
-    </row>
-    <row r="377" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF377" s="8"/>
-    </row>
-    <row r="378" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF378" s="8"/>
-    </row>
-    <row r="379" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF379" s="8"/>
-    </row>
-    <row r="380" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF380" s="8"/>
-    </row>
-    <row r="381" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF381" s="8"/>
-    </row>
-    <row r="382" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF382" s="8"/>
-    </row>
-    <row r="383" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF383" s="8"/>
-    </row>
-    <row r="384" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF384" s="8"/>
-    </row>
-    <row r="385" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF385" s="8"/>
-    </row>
-    <row r="386" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF386" s="8"/>
-    </row>
-    <row r="387" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF387" s="8"/>
-    </row>
-    <row r="388" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF388" s="8"/>
-    </row>
-    <row r="389" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF389" s="8"/>
-    </row>
-    <row r="390" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF390" s="8"/>
-    </row>
-    <row r="391" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF391" s="8"/>
-    </row>
-    <row r="392" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF392" s="8"/>
-    </row>
-    <row r="393" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF393" s="8"/>
-    </row>
-    <row r="394" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF394" s="8"/>
-    </row>
-    <row r="395" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF395" s="8"/>
-    </row>
-    <row r="396" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF396" s="8"/>
-    </row>
-    <row r="397" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF397" s="8"/>
-    </row>
-    <row r="398" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF398" s="8"/>
-    </row>
-    <row r="399" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF399" s="8"/>
-    </row>
-    <row r="400" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF400" s="8"/>
-    </row>
-    <row r="401" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF401" s="8"/>
-    </row>
-    <row r="402" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF402" s="8"/>
-    </row>
-    <row r="403" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF403" s="8"/>
-    </row>
-    <row r="404" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF404" s="8"/>
-    </row>
-    <row r="405" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF405" s="8"/>
-    </row>
-    <row r="406" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF406" s="8"/>
-    </row>
-    <row r="407" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF407" s="8"/>
-    </row>
-    <row r="408" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF408" s="8"/>
-    </row>
-    <row r="409" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF409" s="8"/>
-    </row>
-    <row r="410" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF410" s="8"/>
-    </row>
-    <row r="411" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF411" s="8"/>
-    </row>
-    <row r="412" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF412" s="8"/>
-    </row>
-    <row r="413" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF413" s="8"/>
-    </row>
-    <row r="414" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF414" s="8"/>
-    </row>
-    <row r="415" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF415" s="8"/>
-    </row>
-    <row r="416" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF416" s="8"/>
-    </row>
-    <row r="417" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF417" s="8"/>
-    </row>
-    <row r="418" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF418" s="8"/>
-    </row>
-    <row r="419" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF419" s="8"/>
-    </row>
-    <row r="420" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF420" s="8"/>
-    </row>
-    <row r="421" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF421" s="8"/>
-    </row>
-    <row r="422" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF422" s="8"/>
-    </row>
-    <row r="423" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF423" s="8"/>
-    </row>
-    <row r="424" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF424" s="8"/>
-    </row>
-    <row r="425" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF425" s="8"/>
-    </row>
-    <row r="426" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF426" s="8"/>
-    </row>
-    <row r="427" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF427" s="8"/>
-    </row>
-    <row r="428" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF428" s="8"/>
-    </row>
-    <row r="429" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF429" s="8"/>
-    </row>
-    <row r="430" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF430" s="8"/>
-    </row>
-    <row r="431" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF431" s="8"/>
-    </row>
-    <row r="432" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF432" s="8"/>
-    </row>
-    <row r="433" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF433" s="8"/>
-    </row>
-    <row r="434" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF434" s="8"/>
-    </row>
-    <row r="435" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF435" s="8"/>
-    </row>
-    <row r="436" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF436" s="8"/>
-    </row>
-    <row r="437" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF437" s="8"/>
-    </row>
-    <row r="438" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF438" s="8"/>
-    </row>
-    <row r="439" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF439" s="8"/>
-    </row>
-    <row r="440" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF440" s="8"/>
-    </row>
-    <row r="441" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF441" s="8"/>
-    </row>
-    <row r="442" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF442" s="8"/>
-    </row>
-    <row r="443" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF443" s="8"/>
-    </row>
-    <row r="444" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF444" s="8"/>
-    </row>
-    <row r="445" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF445" s="8"/>
-    </row>
-    <row r="446" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF446" s="8"/>
-    </row>
-    <row r="447" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF447" s="8"/>
-    </row>
-    <row r="448" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF448" s="8"/>
-    </row>
-    <row r="449" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF449" s="8"/>
-    </row>
-    <row r="450" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF450" s="8"/>
-    </row>
-    <row r="451" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF451" s="8"/>
-    </row>
-    <row r="452" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF452" s="8"/>
-    </row>
-    <row r="453" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF453" s="8"/>
-    </row>
-    <row r="454" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF454" s="8"/>
-    </row>
-    <row r="455" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF455" s="8"/>
-    </row>
-    <row r="456" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF456" s="8"/>
-    </row>
-    <row r="457" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF457" s="8"/>
-    </row>
-    <row r="458" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF458" s="8"/>
-    </row>
-    <row r="459" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF459" s="8"/>
-    </row>
-    <row r="460" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF460" s="8"/>
-    </row>
-    <row r="461" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF461" s="8"/>
-    </row>
-    <row r="462" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF462" s="8"/>
-    </row>
-    <row r="463" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF463" s="8"/>
-    </row>
-    <row r="464" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF464" s="8"/>
-    </row>
-    <row r="465" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF465" s="8"/>
-    </row>
-    <row r="466" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF466" s="8"/>
-    </row>
-    <row r="467" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF467" s="8"/>
-    </row>
-    <row r="468" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF468" s="8"/>
-    </row>
-    <row r="469" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF469" s="8"/>
-    </row>
-    <row r="470" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF470" s="8"/>
-    </row>
-    <row r="471" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF471" s="8"/>
-    </row>
-    <row r="472" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF472" s="8"/>
-    </row>
-    <row r="473" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF473" s="8"/>
-    </row>
-    <row r="474" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF474" s="8"/>
-    </row>
-    <row r="475" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF475" s="8"/>
-    </row>
-    <row r="476" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF476" s="8"/>
-    </row>
-    <row r="477" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF477" s="8"/>
-    </row>
-    <row r="478" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF478" s="8"/>
-    </row>
-    <row r="479" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF479" s="8"/>
-    </row>
-    <row r="480" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF480" s="8"/>
-    </row>
-    <row r="481" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF481" s="8"/>
-    </row>
-    <row r="482" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF482" s="8"/>
-    </row>
-    <row r="483" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF483" s="8"/>
-    </row>
-    <row r="484" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF484" s="8"/>
-    </row>
-    <row r="485" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF485" s="8"/>
-    </row>
-    <row r="486" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF486" s="8"/>
-    </row>
-    <row r="487" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF487" s="8"/>
-    </row>
-    <row r="488" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF488" s="8"/>
-    </row>
-    <row r="489" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF489" s="8"/>
-    </row>
-    <row r="490" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF490" s="8"/>
-    </row>
-    <row r="491" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF491" s="8"/>
-    </row>
-    <row r="492" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF492" s="8"/>
-    </row>
-    <row r="493" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF493" s="8"/>
-    </row>
-    <row r="494" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF494" s="8"/>
-    </row>
-    <row r="495" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF495" s="8"/>
-    </row>
-    <row r="496" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF496" s="8"/>
-    </row>
-    <row r="497" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF497" s="8"/>
-    </row>
-    <row r="498" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF498" s="8"/>
-    </row>
-    <row r="499" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF499" s="8"/>
-    </row>
-    <row r="500" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF500" s="8"/>
-    </row>
-    <row r="501" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF501" s="8"/>
-    </row>
-    <row r="502" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF502" s="8"/>
-    </row>
-    <row r="503" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF503" s="8"/>
-    </row>
-    <row r="504" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF504" s="8"/>
-    </row>
-    <row r="505" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF505" s="8"/>
-    </row>
-    <row r="506" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF506" s="8"/>
-    </row>
-    <row r="507" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF507" s="8"/>
-    </row>
-    <row r="508" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF508" s="8"/>
-    </row>
-    <row r="509" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF509" s="8"/>
-    </row>
-    <row r="510" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF510" s="8"/>
-    </row>
-    <row r="511" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF511" s="8"/>
-    </row>
-    <row r="512" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF512" s="8"/>
-    </row>
-    <row r="513" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF513" s="8"/>
-    </row>
-    <row r="514" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF514" s="8"/>
-    </row>
-    <row r="515" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF515" s="8"/>
-    </row>
-    <row r="516" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF516" s="8"/>
-    </row>
-    <row r="517" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF517" s="8"/>
-    </row>
-    <row r="518" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF518" s="8"/>
-    </row>
-    <row r="519" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF519" s="8"/>
-    </row>
-    <row r="520" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF520" s="8"/>
-    </row>
-    <row r="521" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF521" s="8"/>
-    </row>
-    <row r="522" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF522" s="8"/>
-    </row>
-    <row r="523" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF523" s="8"/>
-    </row>
-    <row r="524" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF524" s="8"/>
-    </row>
-    <row r="525" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF525" s="8"/>
-    </row>
-    <row r="526" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF526" s="8"/>
-    </row>
-    <row r="527" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF527" s="8"/>
-    </row>
-    <row r="528" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF528" s="8"/>
-    </row>
-    <row r="529" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF529" s="8"/>
-    </row>
-    <row r="530" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF530" s="8"/>
-    </row>
-    <row r="531" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF531" s="8"/>
-    </row>
-    <row r="532" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF532" s="8"/>
-    </row>
-    <row r="533" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF533" s="8"/>
-    </row>
-    <row r="534" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF534" s="8"/>
-    </row>
-    <row r="535" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF535" s="8"/>
-    </row>
-    <row r="536" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF536" s="8"/>
-    </row>
-    <row r="537" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF537" s="8"/>
-    </row>
-    <row r="538" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF538" s="8"/>
-    </row>
-    <row r="539" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF539" s="8"/>
-    </row>
-    <row r="540" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF540" s="8"/>
-    </row>
-    <row r="541" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF541" s="8"/>
-    </row>
-    <row r="542" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF542" s="8"/>
-    </row>
-    <row r="543" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF543" s="8"/>
-    </row>
-    <row r="544" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF544" s="8"/>
-    </row>
-    <row r="545" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF545" s="8"/>
-    </row>
-    <row r="546" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF546" s="8"/>
-    </row>
-    <row r="547" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF547" s="8"/>
-    </row>
-    <row r="548" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF548" s="8"/>
-    </row>
-    <row r="549" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF549" s="8"/>
-    </row>
-    <row r="550" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF550" s="8"/>
-    </row>
-    <row r="551" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF551" s="8"/>
-    </row>
-    <row r="552" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF552" s="8"/>
-    </row>
-    <row r="553" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF553" s="8"/>
-    </row>
-    <row r="554" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF554" s="8"/>
-    </row>
-    <row r="555" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF555" s="8"/>
-    </row>
-    <row r="556" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF556" s="8"/>
-    </row>
-    <row r="557" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF557" s="8"/>
-    </row>
-    <row r="558" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF558" s="8"/>
-    </row>
-    <row r="559" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF559" s="8"/>
-    </row>
-    <row r="560" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF560" s="8"/>
-    </row>
-    <row r="561" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF561" s="8"/>
-    </row>
-    <row r="562" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF562" s="8"/>
-    </row>
-    <row r="563" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF563" s="8"/>
-    </row>
-    <row r="564" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF564" s="8"/>
-    </row>
-    <row r="565" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF565" s="8"/>
-    </row>
-    <row r="566" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF566" s="8"/>
-    </row>
-    <row r="567" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF567" s="8"/>
-    </row>
-    <row r="568" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF568" s="8"/>
-    </row>
-    <row r="569" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF569" s="8"/>
-    </row>
-    <row r="570" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF570" s="8"/>
-    </row>
-    <row r="571" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF571" s="8"/>
-    </row>
-    <row r="572" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF572" s="8"/>
-    </row>
-    <row r="573" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF573" s="8"/>
-    </row>
-    <row r="574" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF574" s="8"/>
-    </row>
-    <row r="575" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF575" s="8"/>
-    </row>
-    <row r="576" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF576" s="8"/>
-    </row>
-    <row r="577" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF577" s="8"/>
-    </row>
-    <row r="578" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF578" s="8"/>
-    </row>
-    <row r="579" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF579" s="8"/>
-    </row>
-    <row r="580" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF580" s="8"/>
-    </row>
-    <row r="581" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF581" s="8"/>
-    </row>
-    <row r="582" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF582" s="8"/>
-    </row>
-    <row r="583" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF583" s="8"/>
-    </row>
-    <row r="584" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF584" s="8"/>
-    </row>
-    <row r="585" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF585" s="8"/>
-    </row>
-    <row r="586" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF586" s="8"/>
-    </row>
-    <row r="587" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF587" s="8"/>
-    </row>
-    <row r="588" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF588" s="8"/>
-    </row>
-    <row r="589" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF589" s="8"/>
-    </row>
-    <row r="590" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF590" s="8"/>
-    </row>
-    <row r="591" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF591" s="8"/>
-    </row>
-    <row r="592" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF592" s="8"/>
-    </row>
-    <row r="593" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF593" s="8"/>
-    </row>
-    <row r="594" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF594" s="8"/>
-    </row>
-    <row r="595" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF595" s="8"/>
-    </row>
-    <row r="596" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF596" s="8"/>
-    </row>
-    <row r="597" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF597" s="8"/>
-    </row>
-    <row r="598" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF598" s="8"/>
-    </row>
-    <row r="599" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF599" s="8"/>
-    </row>
-    <row r="600" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF600" s="8"/>
-    </row>
-    <row r="601" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF601" s="8"/>
-    </row>
-    <row r="602" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF602" s="8"/>
-    </row>
-    <row r="603" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF603" s="8"/>
-    </row>
-    <row r="604" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF604" s="8"/>
-    </row>
-    <row r="605" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF605" s="8"/>
-    </row>
-    <row r="606" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF606" s="8"/>
-    </row>
-    <row r="607" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF607" s="8"/>
-    </row>
-    <row r="608" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF608" s="8"/>
-    </row>
-    <row r="609" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF609" s="8"/>
-    </row>
-    <row r="610" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF610" s="8"/>
-    </row>
-    <row r="611" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF611" s="8"/>
-    </row>
-    <row r="612" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF612" s="8"/>
-    </row>
-    <row r="613" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF613" s="8"/>
-    </row>
-    <row r="614" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF614" s="8"/>
-    </row>
-    <row r="615" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF615" s="8"/>
-    </row>
-    <row r="616" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF616" s="8"/>
-    </row>
-    <row r="617" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF617" s="8"/>
-    </row>
-    <row r="618" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF618" s="8"/>
-    </row>
-    <row r="619" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF619" s="8"/>
-    </row>
-    <row r="620" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF620" s="8"/>
-    </row>
-    <row r="621" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF621" s="8"/>
-    </row>
-    <row r="622" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF622" s="8"/>
-    </row>
-    <row r="623" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF623" s="8"/>
-    </row>
-    <row r="624" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF624" s="8"/>
-    </row>
-    <row r="625" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF625" s="8"/>
-    </row>
-    <row r="626" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF626" s="8"/>
-    </row>
-    <row r="627" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF627" s="8"/>
-    </row>
-    <row r="628" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF628" s="8"/>
-    </row>
-    <row r="629" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF629" s="8"/>
-    </row>
-    <row r="630" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF630" s="8"/>
-    </row>
-    <row r="631" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF631" s="8"/>
-    </row>
-    <row r="632" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF632" s="8"/>
-    </row>
-    <row r="633" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF633" s="8"/>
-    </row>
-    <row r="634" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF634" s="8"/>
-    </row>
-    <row r="635" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF635" s="8"/>
-    </row>
-    <row r="636" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF636" s="8"/>
-    </row>
-    <row r="637" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF637" s="8"/>
-    </row>
-    <row r="638" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF638" s="8"/>
-    </row>
-    <row r="639" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF639" s="8"/>
-    </row>
-    <row r="640" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF640" s="8"/>
-    </row>
-    <row r="641" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF641" s="8"/>
-    </row>
-    <row r="642" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF642" s="8"/>
-    </row>
-    <row r="643" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF643" s="8"/>
-    </row>
-    <row r="644" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF644" s="8"/>
-    </row>
-    <row r="645" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF645" s="8"/>
-    </row>
-    <row r="646" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF646" s="8"/>
-    </row>
-    <row r="647" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF647" s="8"/>
-    </row>
-    <row r="648" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF648" s="8"/>
-    </row>
-    <row r="649" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF649" s="8"/>
-    </row>
-    <row r="650" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF650" s="8"/>
-    </row>
-    <row r="651" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF651" s="8"/>
-    </row>
-    <row r="652" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF652" s="8"/>
-    </row>
-    <row r="653" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF653" s="8"/>
-    </row>
-    <row r="654" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF654" s="8"/>
-    </row>
-    <row r="655" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF655" s="8"/>
-    </row>
-    <row r="656" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF656" s="8"/>
-    </row>
-    <row r="657" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF657" s="8"/>
-    </row>
-    <row r="658" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF658" s="8"/>
-    </row>
-    <row r="659" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF659" s="8"/>
-    </row>
-    <row r="660" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF660" s="8"/>
-    </row>
-    <row r="661" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF661" s="8"/>
-    </row>
-    <row r="662" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF662" s="8"/>
-    </row>
-    <row r="663" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF663" s="8"/>
-    </row>
-    <row r="664" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF664" s="8"/>
-    </row>
-    <row r="665" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF665" s="8"/>
-    </row>
-    <row r="666" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF666" s="8"/>
-    </row>
-    <row r="667" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF667" s="8"/>
-    </row>
-    <row r="668" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF668" s="8"/>
-    </row>
-    <row r="669" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF669" s="8"/>
-    </row>
-    <row r="670" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF670" s="8"/>
-    </row>
-    <row r="671" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF671" s="8"/>
-    </row>
-    <row r="672" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF672" s="8"/>
-    </row>
-    <row r="673" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF673" s="8"/>
-    </row>
-    <row r="674" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF674" s="8"/>
-    </row>
-    <row r="675" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF675" s="8"/>
-    </row>
-    <row r="676" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF676" s="8"/>
-    </row>
-    <row r="677" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF677" s="8"/>
-    </row>
-    <row r="678" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF678" s="8"/>
-    </row>
-    <row r="679" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF679" s="8"/>
-    </row>
-    <row r="680" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF680" s="8"/>
-    </row>
-    <row r="681" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF681" s="8"/>
-    </row>
-    <row r="682" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF682" s="8"/>
-    </row>
-    <row r="683" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF683" s="8"/>
-    </row>
-    <row r="684" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF684" s="8"/>
-    </row>
-    <row r="685" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF685" s="8"/>
-    </row>
-    <row r="686" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF686" s="8"/>
-    </row>
-    <row r="687" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF687" s="8"/>
-    </row>
-    <row r="688" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF688" s="8"/>
-    </row>
-    <row r="689" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF689" s="8"/>
-    </row>
-    <row r="690" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF690" s="8"/>
-    </row>
-    <row r="691" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF691" s="8"/>
-    </row>
-    <row r="692" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF692" s="8"/>
-    </row>
-    <row r="693" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF693" s="8"/>
-    </row>
-    <row r="694" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF694" s="8"/>
-    </row>
-    <row r="695" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF695" s="8"/>
-    </row>
-    <row r="696" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF696" s="8"/>
-    </row>
-    <row r="697" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF697" s="8"/>
-    </row>
-    <row r="698" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF698" s="8"/>
-    </row>
-    <row r="699" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF699" s="8"/>
-    </row>
-    <row r="700" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF700" s="8"/>
-    </row>
-    <row r="701" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF701" s="8"/>
-    </row>
-    <row r="702" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF702" s="8"/>
-    </row>
-    <row r="703" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF703" s="8"/>
-    </row>
-    <row r="704" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF704" s="8"/>
-    </row>
-    <row r="705" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF705" s="8"/>
-    </row>
-    <row r="706" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF706" s="8"/>
-    </row>
-    <row r="707" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF707" s="8"/>
-    </row>
-    <row r="708" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF708" s="8"/>
-    </row>
-    <row r="709" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF709" s="8"/>
-    </row>
-    <row r="710" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF710" s="8"/>
-    </row>
-    <row r="711" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF711" s="8"/>
-    </row>
-    <row r="712" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF712" s="8"/>
-    </row>
-    <row r="713" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF713" s="8"/>
-    </row>
-    <row r="714" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF714" s="8"/>
-    </row>
-    <row r="715" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF715" s="8"/>
-    </row>
-    <row r="716" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF716" s="8"/>
-    </row>
-    <row r="717" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF717" s="8"/>
-    </row>
-    <row r="718" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF718" s="8"/>
-    </row>
-    <row r="719" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF719" s="8"/>
-    </row>
-    <row r="720" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF720" s="8"/>
-    </row>
-    <row r="721" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF721" s="8"/>
-    </row>
-    <row r="722" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF722" s="8"/>
-    </row>
-    <row r="723" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF723" s="8"/>
-    </row>
-    <row r="724" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF724" s="8"/>
-    </row>
-    <row r="725" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF725" s="8"/>
-    </row>
-    <row r="726" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF726" s="8"/>
-    </row>
-    <row r="727" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF727" s="8"/>
-    </row>
-    <row r="728" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF728" s="8"/>
-    </row>
-    <row r="729" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF729" s="8"/>
-    </row>
-    <row r="730" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF730" s="8"/>
-    </row>
-    <row r="731" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF731" s="8"/>
-    </row>
-    <row r="732" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF732" s="8"/>
-    </row>
-    <row r="733" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF733" s="8"/>
-    </row>
-    <row r="734" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF734" s="8"/>
-    </row>
-    <row r="735" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF735" s="8"/>
-    </row>
-    <row r="736" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF736" s="8"/>
-    </row>
-    <row r="737" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF737" s="8"/>
-    </row>
-    <row r="738" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF738" s="8"/>
-    </row>
-    <row r="739" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF739" s="8"/>
-    </row>
-    <row r="740" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF740" s="8"/>
-    </row>
-    <row r="741" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF741" s="8"/>
-    </row>
-    <row r="742" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF742" s="8"/>
-    </row>
-    <row r="743" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF743" s="8"/>
-    </row>
-    <row r="744" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF744" s="8"/>
-    </row>
-    <row r="745" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF745" s="8"/>
-    </row>
-    <row r="746" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF746" s="8"/>
-    </row>
-    <row r="747" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF747" s="8"/>
-    </row>
-    <row r="748" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF748" s="8"/>
-    </row>
-    <row r="749" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF749" s="8"/>
-    </row>
-    <row r="750" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF750" s="8"/>
-    </row>
-    <row r="751" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF751" s="8"/>
-    </row>
-    <row r="752" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF752" s="8"/>
-    </row>
-    <row r="753" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF753" s="8"/>
-    </row>
-    <row r="754" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF754" s="8"/>
-    </row>
-    <row r="755" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF755" s="8"/>
-    </row>
-    <row r="756" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF756" s="8"/>
-    </row>
-    <row r="757" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF757" s="8"/>
-    </row>
-    <row r="758" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF758" s="8"/>
-    </row>
-    <row r="759" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF759" s="8"/>
-    </row>
-    <row r="760" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF760" s="8"/>
-    </row>
-    <row r="761" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF761" s="8"/>
-    </row>
-    <row r="762" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF762" s="8"/>
-    </row>
-    <row r="763" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF763" s="8"/>
-    </row>
-    <row r="764" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF764" s="8"/>
-    </row>
-    <row r="765" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF765" s="8"/>
-    </row>
-    <row r="766" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF766" s="8"/>
-    </row>
-    <row r="767" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF767" s="8"/>
-    </row>
-    <row r="768" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF768" s="8"/>
-    </row>
-    <row r="769" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF769" s="8"/>
-    </row>
-    <row r="770" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF770" s="8"/>
-    </row>
-    <row r="771" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF771" s="8"/>
-    </row>
-    <row r="772" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF772" s="8"/>
-    </row>
-    <row r="773" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF773" s="8"/>
-    </row>
-    <row r="774" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF774" s="8"/>
-    </row>
-    <row r="775" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF775" s="8"/>
-    </row>
-    <row r="776" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF776" s="8"/>
-    </row>
-    <row r="777" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF777" s="8"/>
-    </row>
-    <row r="778" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF778" s="8"/>
-    </row>
-    <row r="779" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF779" s="8"/>
-    </row>
-    <row r="780" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF780" s="8"/>
-    </row>
-    <row r="781" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF781" s="8"/>
-    </row>
-    <row r="782" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF782" s="8"/>
-    </row>
-    <row r="783" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF783" s="8"/>
-    </row>
-    <row r="784" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF784" s="8"/>
-    </row>
-    <row r="785" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF785" s="8"/>
-    </row>
-    <row r="786" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF786" s="8"/>
-    </row>
-    <row r="787" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF787" s="8"/>
-    </row>
-    <row r="788" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF788" s="8"/>
-    </row>
-    <row r="789" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF789" s="8"/>
-    </row>
-    <row r="790" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF790" s="8"/>
-    </row>
-    <row r="791" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF791" s="8"/>
-    </row>
-    <row r="792" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF792" s="8"/>
-    </row>
-    <row r="793" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF793" s="8"/>
-    </row>
-    <row r="794" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF794" s="8"/>
-    </row>
-    <row r="795" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF795" s="8"/>
-    </row>
-    <row r="796" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF796" s="8"/>
-    </row>
-    <row r="797" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF797" s="8"/>
-    </row>
-    <row r="798" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF798" s="8"/>
-    </row>
-    <row r="799" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF799" s="8"/>
-    </row>
-    <row r="800" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF800" s="8"/>
-    </row>
-    <row r="801" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF801" s="8"/>
-    </row>
-    <row r="802" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF802" s="8"/>
-    </row>
-    <row r="803" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF803" s="8"/>
-    </row>
-    <row r="804" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF804" s="8"/>
-    </row>
-    <row r="805" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF805" s="8"/>
-    </row>
-    <row r="806" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF806" s="8"/>
-    </row>
-    <row r="807" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF807" s="8"/>
-    </row>
-    <row r="808" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF808" s="8"/>
-    </row>
-    <row r="809" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF809" s="8"/>
-    </row>
-    <row r="810" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF810" s="8"/>
-    </row>
-    <row r="811" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF811" s="8"/>
-    </row>
-    <row r="812" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF812" s="8"/>
-    </row>
-    <row r="813" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF813" s="8"/>
-    </row>
-    <row r="814" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF814" s="8"/>
-    </row>
-    <row r="815" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF815" s="8"/>
-    </row>
-    <row r="816" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF816" s="8"/>
-    </row>
-    <row r="817" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF817" s="8"/>
-    </row>
-    <row r="818" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF818" s="8"/>
-    </row>
-    <row r="819" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF819" s="8"/>
-    </row>
-    <row r="820" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF820" s="8"/>
-    </row>
-    <row r="821" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF821" s="8"/>
-    </row>
-    <row r="822" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF822" s="8"/>
-    </row>
-    <row r="823" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF823" s="8"/>
-    </row>
-    <row r="824" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF824" s="8"/>
-    </row>
-    <row r="825" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF825" s="8"/>
-    </row>
-    <row r="826" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF826" s="8"/>
-    </row>
-    <row r="827" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF827" s="8"/>
-    </row>
-    <row r="828" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF828" s="8"/>
-    </row>
-    <row r="829" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF829" s="8"/>
-    </row>
-    <row r="830" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF830" s="8"/>
-    </row>
-    <row r="831" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF831" s="8"/>
-    </row>
-    <row r="832" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF832" s="8"/>
-    </row>
-    <row r="833" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF833" s="8"/>
-    </row>
-    <row r="834" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF834" s="8"/>
-    </row>
-    <row r="835" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF835" s="8"/>
-    </row>
-    <row r="836" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF836" s="8"/>
-    </row>
-    <row r="837" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF837" s="8"/>
-    </row>
-    <row r="838" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF838" s="8"/>
-    </row>
-    <row r="839" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF839" s="8"/>
-    </row>
-    <row r="840" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF840" s="8"/>
-    </row>
-    <row r="841" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF841" s="8"/>
-    </row>
-    <row r="842" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF842" s="8"/>
-    </row>
-    <row r="843" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF843" s="8"/>
-    </row>
-    <row r="844" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF844" s="8"/>
-    </row>
-    <row r="845" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF845" s="8"/>
-    </row>
-    <row r="846" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF846" s="8"/>
-    </row>
-    <row r="847" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF847" s="8"/>
-    </row>
-    <row r="848" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF848" s="8"/>
-    </row>
-    <row r="849" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF849" s="8"/>
-    </row>
-    <row r="850" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF850" s="8"/>
-    </row>
-    <row r="851" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF851" s="8"/>
-    </row>
-    <row r="852" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF852" s="8"/>
-    </row>
-    <row r="853" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF853" s="8"/>
-    </row>
-    <row r="854" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF854" s="8"/>
-    </row>
-    <row r="855" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF855" s="8"/>
-    </row>
-    <row r="856" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF856" s="8"/>
-    </row>
-    <row r="857" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF857" s="8"/>
-    </row>
-    <row r="858" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF858" s="8"/>
-    </row>
-    <row r="859" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF859" s="8"/>
-    </row>
-    <row r="860" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF860" s="8"/>
-    </row>
-    <row r="861" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF861" s="8"/>
-    </row>
-    <row r="862" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF862" s="8"/>
-    </row>
-    <row r="863" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF863" s="8"/>
-    </row>
-    <row r="864" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF864" s="8"/>
-    </row>
-    <row r="865" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF865" s="8"/>
-    </row>
-    <row r="866" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF866" s="8"/>
-    </row>
-    <row r="867" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF867" s="8"/>
-    </row>
-    <row r="868" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF868" s="8"/>
-    </row>
-    <row r="869" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF869" s="8"/>
-    </row>
-    <row r="870" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF870" s="8"/>
-    </row>
-    <row r="871" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF871" s="8"/>
-    </row>
-    <row r="872" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF872" s="8"/>
-    </row>
-    <row r="873" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF873" s="8"/>
-    </row>
-    <row r="874" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF874" s="8"/>
-    </row>
-    <row r="875" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF875" s="8"/>
-    </row>
-    <row r="876" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF876" s="8"/>
-    </row>
-    <row r="877" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF877" s="8"/>
-    </row>
-    <row r="878" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF878" s="8"/>
-    </row>
-    <row r="879" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF879" s="8"/>
-    </row>
-    <row r="880" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF880" s="8"/>
-    </row>
-    <row r="881" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF881" s="8"/>
-    </row>
-    <row r="882" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF882" s="8"/>
-    </row>
-    <row r="883" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF883" s="8"/>
-    </row>
-    <row r="884" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF884" s="8"/>
-    </row>
-    <row r="885" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF885" s="8"/>
-    </row>
-    <row r="886" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF886" s="8"/>
-    </row>
-    <row r="887" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF887" s="8"/>
-    </row>
-    <row r="888" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF888" s="8"/>
-    </row>
-    <row r="889" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF889" s="8"/>
-    </row>
-    <row r="890" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF890" s="8"/>
-    </row>
-    <row r="891" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF891" s="8"/>
-    </row>
-    <row r="892" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF892" s="8"/>
-    </row>
-    <row r="893" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF893" s="8"/>
-    </row>
-    <row r="894" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF894" s="8"/>
-    </row>
-    <row r="895" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF895" s="8"/>
-    </row>
-    <row r="896" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF896" s="8"/>
-    </row>
-    <row r="897" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF897" s="8"/>
-    </row>
-    <row r="898" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF898" s="8"/>
-    </row>
-    <row r="899" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF899" s="8"/>
-    </row>
-    <row r="900" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF900" s="8"/>
-    </row>
-    <row r="901" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF901" s="8"/>
-    </row>
-    <row r="902" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF902" s="8"/>
-    </row>
-    <row r="903" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF903" s="8"/>
-    </row>
-    <row r="904" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF904" s="8"/>
-    </row>
-    <row r="905" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF905" s="8"/>
-    </row>
-    <row r="906" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF906" s="8"/>
-    </row>
-    <row r="907" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF907" s="8"/>
-    </row>
-    <row r="908" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF908" s="8"/>
-    </row>
-    <row r="909" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF909" s="8"/>
-    </row>
-    <row r="910" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF910" s="8"/>
-    </row>
-    <row r="911" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF911" s="8"/>
-    </row>
-    <row r="912" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF912" s="8"/>
-    </row>
-    <row r="913" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF913" s="8"/>
-    </row>
-    <row r="914" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF914" s="8"/>
-    </row>
-    <row r="915" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF915" s="8"/>
-    </row>
-    <row r="916" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF916" s="8"/>
-    </row>
-    <row r="917" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF917" s="8"/>
-    </row>
-    <row r="918" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF918" s="8"/>
-    </row>
-    <row r="919" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF919" s="8"/>
-    </row>
-    <row r="920" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF920" s="8"/>
-    </row>
-    <row r="921" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF921" s="8"/>
-    </row>
-    <row r="922" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF922" s="8"/>
-    </row>
-    <row r="923" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF923" s="8"/>
-    </row>
-    <row r="924" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF924" s="8"/>
-    </row>
-    <row r="925" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF925" s="8"/>
-    </row>
-    <row r="926" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF926" s="8"/>
-    </row>
-    <row r="927" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF927" s="8"/>
-    </row>
-    <row r="928" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF928" s="8"/>
-    </row>
-    <row r="929" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF929" s="8"/>
-    </row>
-    <row r="930" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF930" s="8"/>
-    </row>
-    <row r="931" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF931" s="8"/>
-    </row>
-    <row r="932" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF932" s="8"/>
-    </row>
-    <row r="933" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF933" s="8"/>
-    </row>
-    <row r="934" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF934" s="8"/>
-    </row>
-    <row r="935" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF935" s="8"/>
-    </row>
-    <row r="936" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF936" s="8"/>
-    </row>
-    <row r="937" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF937" s="8"/>
-    </row>
-    <row r="938" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF938" s="8"/>
-    </row>
-    <row r="939" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF939" s="8"/>
-    </row>
-    <row r="940" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF940" s="8"/>
-    </row>
-    <row r="941" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF941" s="8"/>
-    </row>
-    <row r="942" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF942" s="8"/>
-    </row>
-    <row r="943" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF943" s="8"/>
-    </row>
-    <row r="944" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF944" s="8"/>
-    </row>
-    <row r="945" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF945" s="8"/>
-    </row>
-    <row r="946" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF946" s="8"/>
-    </row>
-    <row r="947" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF947" s="8"/>
-    </row>
-    <row r="948" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF948" s="8"/>
-    </row>
-    <row r="949" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF949" s="8"/>
-    </row>
-    <row r="950" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF950" s="8"/>
-    </row>
-    <row r="951" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF951" s="8"/>
-    </row>
-    <row r="952" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF952" s="8"/>
-    </row>
-    <row r="953" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF953" s="8"/>
-    </row>
-    <row r="954" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF954" s="8"/>
-    </row>
-    <row r="955" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF955" s="8"/>
-    </row>
-    <row r="956" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF956" s="8"/>
-    </row>
-    <row r="957" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF957" s="8"/>
-    </row>
-    <row r="958" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF958" s="8"/>
-    </row>
-    <row r="959" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF959" s="8"/>
-    </row>
-    <row r="960" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF960" s="8"/>
-    </row>
-    <row r="961" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF961" s="8"/>
-    </row>
-    <row r="962" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF962" s="8"/>
-    </row>
-    <row r="963" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF963" s="8"/>
-    </row>
-    <row r="964" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF964" s="8"/>
-    </row>
-    <row r="965" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF965" s="8"/>
-    </row>
-    <row r="966" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF966" s="8"/>
-    </row>
-    <row r="967" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF967" s="8"/>
-    </row>
-    <row r="968" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF968" s="8"/>
-    </row>
-    <row r="969" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF969" s="8"/>
-    </row>
-    <row r="970" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF970" s="8"/>
-    </row>
-    <row r="971" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF971" s="8"/>
-    </row>
-    <row r="972" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF972" s="8"/>
-    </row>
-    <row r="973" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF973" s="8"/>
-    </row>
-    <row r="974" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF974" s="8"/>
-    </row>
-    <row r="975" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF975" s="8"/>
-    </row>
-    <row r="976" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF976" s="8"/>
-    </row>
-    <row r="977" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF977" s="8"/>
-    </row>
-    <row r="978" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF978" s="8"/>
-    </row>
-    <row r="979" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF979" s="8"/>
-    </row>
-    <row r="980" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF980" s="8"/>
-    </row>
-    <row r="981" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF981" s="8"/>
-    </row>
-    <row r="982" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF982" s="8"/>
-    </row>
-    <row r="983" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF983" s="8"/>
-    </row>
-    <row r="984" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF984" s="8"/>
-    </row>
-    <row r="985" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF985" s="8"/>
-    </row>
-    <row r="986" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF986" s="8"/>
-    </row>
-    <row r="987" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF987" s="8"/>
-    </row>
-    <row r="988" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF988" s="8"/>
-    </row>
-    <row r="989" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF989" s="8"/>
-    </row>
-    <row r="990" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF990" s="8"/>
-    </row>
-    <row r="991" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF991" s="8"/>
-    </row>
-    <row r="992" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF992" s="8"/>
-    </row>
-    <row r="993" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF993" s="8"/>
-    </row>
-    <row r="994" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF994" s="8"/>
-    </row>
-    <row r="995" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF995" s="8"/>
-    </row>
-    <row r="996" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF996" s="8"/>
-    </row>
-    <row r="997" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF997" s="8"/>
-    </row>
-    <row r="998" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF998" s="8"/>
-    </row>
-    <row r="999" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF999" s="8"/>
-    </row>
-    <row r="1000" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF1000" s="8"/>
-    </row>
-    <row r="1001" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF1001" s="8"/>
-    </row>
-    <row r="1002" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF1002" s="8"/>
-    </row>
-    <row r="1003" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF1003" s="8"/>
-    </row>
-    <row r="1004" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF1004" s="8"/>
-    </row>
-    <row r="1005" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF1005" s="8"/>
-    </row>
-    <row r="1006" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF1006" s="8"/>
-    </row>
-    <row r="1007" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF1007" s="8"/>
-    </row>
-    <row r="1008" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF1008" s="8"/>
-    </row>
-    <row r="1009" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF1009" s="8"/>
-    </row>
-    <row r="1010" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF1010" s="8"/>
-    </row>
-    <row r="1011" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF1011" s="8"/>
-    </row>
-    <row r="1012" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF1012" s="8"/>
-    </row>
-    <row r="1013" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF1013" s="8"/>
-    </row>
-    <row r="1014" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF1014" s="8"/>
-    </row>
-    <row r="1015" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF1015" s="8"/>
-    </row>
-    <row r="1016" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF1016" s="8"/>
-    </row>
-    <row r="1017" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF1017" s="8"/>
-    </row>
-    <row r="1018" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF1018" s="8"/>
-    </row>
-    <row r="1019" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF1019" s="8"/>
-    </row>
-    <row r="1020" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF1020" s="8"/>
-    </row>
-    <row r="1021" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF1021" s="8"/>
-    </row>
-    <row r="1022" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF1022" s="8"/>
-    </row>
-    <row r="1023" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF1023" s="8"/>
-    </row>
-    <row r="1024" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF1024" s="8"/>
-    </row>
-    <row r="1025" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF1025" s="8"/>
-    </row>
-    <row r="1026" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF1026" s="8"/>
-    </row>
-    <row r="1027" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF1027" s="8"/>
-    </row>
-    <row r="1028" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF1028" s="8"/>
-    </row>
-    <row r="1029" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF1029" s="8"/>
-    </row>
-    <row r="1030" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF1030" s="8"/>
-    </row>
-    <row r="1031" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF1031" s="8"/>
-    </row>
-    <row r="1032" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF1032" s="8"/>
-    </row>
-    <row r="1033" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF1033" s="8"/>
-    </row>
-    <row r="1034" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF1034" s="8"/>
-    </row>
-    <row r="1035" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF1035" s="8"/>
-    </row>
-    <row r="1036" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF1036" s="8"/>
-    </row>
-    <row r="1037" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF1037" s="8"/>
-    </row>
-    <row r="1038" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF1038" s="8"/>
-    </row>
-    <row r="1039" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF1039" s="8"/>
-    </row>
-    <row r="1040" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF1040" s="8"/>
-    </row>
-    <row r="1041" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF1041" s="8"/>
-    </row>
-    <row r="1042" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF1042" s="8"/>
-    </row>
-    <row r="1043" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF1043" s="8"/>
-    </row>
-    <row r="1044" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF1044" s="8"/>
-    </row>
-    <row r="1045" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF1045" s="8"/>
-    </row>
-    <row r="1046" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF1046" s="8"/>
-    </row>
-    <row r="1047" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF1047" s="8"/>
-    </row>
-    <row r="1048" spans="32:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF1048" s="8"/>
+      <c r="AE100" s="1"/>
+    </row>
+    <row r="101" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE101" s="8"/>
+    </row>
+    <row r="102" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE102" s="8"/>
+    </row>
+    <row r="103" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE103" s="8"/>
+    </row>
+    <row r="104" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE104" s="8"/>
+    </row>
+    <row r="105" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE105" s="8"/>
+    </row>
+    <row r="106" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE106" s="8"/>
+    </row>
+    <row r="107" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE107" s="8"/>
+    </row>
+    <row r="108" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE108" s="8"/>
+    </row>
+    <row r="109" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE109" s="8"/>
+    </row>
+    <row r="110" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE110" s="8"/>
+    </row>
+    <row r="111" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE111" s="8"/>
+    </row>
+    <row r="112" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE112" s="8"/>
+    </row>
+    <row r="113" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE113" s="8"/>
+    </row>
+    <row r="114" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE114" s="8"/>
+    </row>
+    <row r="115" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE115" s="8"/>
+    </row>
+    <row r="116" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE116" s="8"/>
+    </row>
+    <row r="117" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE117" s="8"/>
+    </row>
+    <row r="118" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE118" s="8"/>
+    </row>
+    <row r="119" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE119" s="8"/>
+    </row>
+    <row r="120" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE120" s="8"/>
+    </row>
+    <row r="121" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE121" s="8"/>
+    </row>
+    <row r="122" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE122" s="8"/>
+    </row>
+    <row r="123" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE123" s="8"/>
+    </row>
+    <row r="124" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE124" s="8"/>
+    </row>
+    <row r="125" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE125" s="8"/>
+    </row>
+    <row r="126" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE126" s="8"/>
+    </row>
+    <row r="127" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE127" s="8"/>
+    </row>
+    <row r="128" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE128" s="8"/>
+    </row>
+    <row r="129" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE129" s="8"/>
+    </row>
+    <row r="130" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE130" s="8"/>
+    </row>
+    <row r="131" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE131" s="8"/>
+    </row>
+    <row r="132" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE132" s="8"/>
+    </row>
+    <row r="133" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE133" s="8"/>
+    </row>
+    <row r="134" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE134" s="8"/>
+    </row>
+    <row r="135" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE135" s="8"/>
+    </row>
+    <row r="136" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE136" s="8"/>
+    </row>
+    <row r="137" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE137" s="8"/>
+    </row>
+    <row r="138" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE138" s="8"/>
+    </row>
+    <row r="139" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE139" s="8"/>
+    </row>
+    <row r="140" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE140" s="8"/>
+    </row>
+    <row r="141" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE141" s="8"/>
+    </row>
+    <row r="142" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE142" s="8"/>
+    </row>
+    <row r="143" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE143" s="8"/>
+    </row>
+    <row r="144" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE144" s="8"/>
+    </row>
+    <row r="145" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE145" s="8"/>
+    </row>
+    <row r="146" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE146" s="8"/>
+    </row>
+    <row r="147" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE147" s="8"/>
+    </row>
+    <row r="148" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE148" s="8"/>
+    </row>
+    <row r="149" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE149" s="8"/>
+    </row>
+    <row r="150" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE150" s="8"/>
+    </row>
+    <row r="151" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE151" s="8"/>
+    </row>
+    <row r="152" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE152" s="8"/>
+    </row>
+    <row r="153" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE153" s="8"/>
+    </row>
+    <row r="154" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE154" s="8"/>
+    </row>
+    <row r="155" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE155" s="8"/>
+    </row>
+    <row r="156" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE156" s="8"/>
+    </row>
+    <row r="157" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE157" s="8"/>
+    </row>
+    <row r="158" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE158" s="8"/>
+    </row>
+    <row r="159" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE159" s="8"/>
+    </row>
+    <row r="160" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE160" s="8"/>
+    </row>
+    <row r="161" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE161" s="8"/>
+    </row>
+    <row r="162" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE162" s="8"/>
+    </row>
+    <row r="163" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE163" s="8"/>
+    </row>
+    <row r="164" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE164" s="8"/>
+    </row>
+    <row r="165" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE165" s="8"/>
+    </row>
+    <row r="166" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE166" s="8"/>
+    </row>
+    <row r="167" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE167" s="8"/>
+    </row>
+    <row r="168" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE168" s="8"/>
+    </row>
+    <row r="169" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE169" s="8"/>
+    </row>
+    <row r="170" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE170" s="8"/>
+    </row>
+    <row r="171" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE171" s="8"/>
+    </row>
+    <row r="172" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE172" s="8"/>
+    </row>
+    <row r="173" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE173" s="8"/>
+    </row>
+    <row r="174" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE174" s="8"/>
+    </row>
+    <row r="175" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE175" s="8"/>
+    </row>
+    <row r="176" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE176" s="8"/>
+    </row>
+    <row r="177" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE177" s="8"/>
+    </row>
+    <row r="178" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE178" s="8"/>
+    </row>
+    <row r="179" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE179" s="8"/>
+    </row>
+    <row r="180" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE180" s="8"/>
+    </row>
+    <row r="181" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE181" s="8"/>
+    </row>
+    <row r="182" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE182" s="8"/>
+    </row>
+    <row r="183" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE183" s="8"/>
+    </row>
+    <row r="184" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE184" s="8"/>
+    </row>
+    <row r="185" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE185" s="8"/>
+    </row>
+    <row r="186" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE186" s="8"/>
+    </row>
+    <row r="187" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE187" s="8"/>
+    </row>
+    <row r="188" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE188" s="8"/>
+    </row>
+    <row r="189" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE189" s="8"/>
+    </row>
+    <row r="190" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE190" s="8"/>
+    </row>
+    <row r="191" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE191" s="8"/>
+    </row>
+    <row r="192" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE192" s="8"/>
+    </row>
+    <row r="193" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE193" s="8"/>
+    </row>
+    <row r="194" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE194" s="8"/>
+    </row>
+    <row r="195" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE195" s="8"/>
+    </row>
+    <row r="196" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE196" s="8"/>
+    </row>
+    <row r="197" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE197" s="8"/>
+    </row>
+    <row r="198" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE198" s="8"/>
+    </row>
+    <row r="199" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE199" s="8"/>
+    </row>
+    <row r="200" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE200" s="8"/>
+    </row>
+    <row r="201" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE201" s="8"/>
+    </row>
+    <row r="202" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE202" s="8"/>
+    </row>
+    <row r="203" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE203" s="8"/>
+    </row>
+    <row r="204" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE204" s="8"/>
+    </row>
+    <row r="205" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE205" s="8"/>
+    </row>
+    <row r="206" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE206" s="8"/>
+    </row>
+    <row r="207" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE207" s="8"/>
+    </row>
+    <row r="208" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE208" s="8"/>
+    </row>
+    <row r="209" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE209" s="8"/>
+    </row>
+    <row r="210" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE210" s="8"/>
+    </row>
+    <row r="211" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE211" s="8"/>
+    </row>
+    <row r="212" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE212" s="8"/>
+    </row>
+    <row r="213" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE213" s="8"/>
+    </row>
+    <row r="214" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE214" s="8"/>
+    </row>
+    <row r="215" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE215" s="8"/>
+    </row>
+    <row r="216" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE216" s="8"/>
+    </row>
+    <row r="217" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE217" s="8"/>
+    </row>
+    <row r="218" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE218" s="8"/>
+    </row>
+    <row r="219" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE219" s="8"/>
+    </row>
+    <row r="220" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE220" s="8"/>
+    </row>
+    <row r="221" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE221" s="8"/>
+    </row>
+    <row r="222" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE222" s="8"/>
+    </row>
+    <row r="223" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE223" s="8"/>
+    </row>
+    <row r="224" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE224" s="8"/>
+    </row>
+    <row r="225" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE225" s="8"/>
+    </row>
+    <row r="226" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE226" s="8"/>
+    </row>
+    <row r="227" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE227" s="8"/>
+    </row>
+    <row r="228" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE228" s="8"/>
+    </row>
+    <row r="229" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE229" s="8"/>
+    </row>
+    <row r="230" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE230" s="8"/>
+    </row>
+    <row r="231" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE231" s="8"/>
+    </row>
+    <row r="232" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE232" s="8"/>
+    </row>
+    <row r="233" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE233" s="8"/>
+    </row>
+    <row r="234" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE234" s="8"/>
+    </row>
+    <row r="235" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE235" s="8"/>
+    </row>
+    <row r="236" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE236" s="8"/>
+    </row>
+    <row r="237" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE237" s="8"/>
+    </row>
+    <row r="238" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE238" s="8"/>
+    </row>
+    <row r="239" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE239" s="8"/>
+    </row>
+    <row r="240" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE240" s="8"/>
+    </row>
+    <row r="241" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE241" s="8"/>
+    </row>
+    <row r="242" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE242" s="8"/>
+    </row>
+    <row r="243" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE243" s="8"/>
+    </row>
+    <row r="244" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE244" s="8"/>
+    </row>
+    <row r="245" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE245" s="8"/>
+    </row>
+    <row r="246" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE246" s="8"/>
+    </row>
+    <row r="247" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE247" s="8"/>
+    </row>
+    <row r="248" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE248" s="8"/>
+    </row>
+    <row r="249" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE249" s="8"/>
+    </row>
+    <row r="250" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE250" s="8"/>
+    </row>
+    <row r="251" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE251" s="8"/>
+    </row>
+    <row r="252" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE252" s="8"/>
+    </row>
+    <row r="253" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE253" s="8"/>
+    </row>
+    <row r="254" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE254" s="8"/>
+    </row>
+    <row r="255" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE255" s="8"/>
+    </row>
+    <row r="256" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE256" s="8"/>
+    </row>
+    <row r="257" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE257" s="8"/>
+    </row>
+    <row r="258" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE258" s="8"/>
+    </row>
+    <row r="259" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE259" s="8"/>
+    </row>
+    <row r="260" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE260" s="8"/>
+    </row>
+    <row r="261" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE261" s="8"/>
+    </row>
+    <row r="262" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE262" s="8"/>
+    </row>
+    <row r="263" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE263" s="8"/>
+    </row>
+    <row r="264" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE264" s="8"/>
+    </row>
+    <row r="265" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE265" s="8"/>
+    </row>
+    <row r="266" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE266" s="8"/>
+    </row>
+    <row r="267" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE267" s="8"/>
+    </row>
+    <row r="268" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE268" s="8"/>
+    </row>
+    <row r="269" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE269" s="8"/>
+    </row>
+    <row r="270" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE270" s="8"/>
+    </row>
+    <row r="271" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE271" s="8"/>
+    </row>
+    <row r="272" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE272" s="8"/>
+    </row>
+    <row r="273" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE273" s="8"/>
+    </row>
+    <row r="274" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE274" s="8"/>
+    </row>
+    <row r="275" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE275" s="8"/>
+    </row>
+    <row r="276" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE276" s="8"/>
+    </row>
+    <row r="277" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE277" s="8"/>
+    </row>
+    <row r="278" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE278" s="8"/>
+    </row>
+    <row r="279" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE279" s="8"/>
+    </row>
+    <row r="280" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE280" s="8"/>
+    </row>
+    <row r="281" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE281" s="8"/>
+    </row>
+    <row r="282" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE282" s="8"/>
+    </row>
+    <row r="283" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE283" s="8"/>
+    </row>
+    <row r="284" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE284" s="8"/>
+    </row>
+    <row r="285" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE285" s="8"/>
+    </row>
+    <row r="286" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE286" s="8"/>
+    </row>
+    <row r="287" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE287" s="8"/>
+    </row>
+    <row r="288" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE288" s="8"/>
+    </row>
+    <row r="289" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE289" s="8"/>
+    </row>
+    <row r="290" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE290" s="8"/>
+    </row>
+    <row r="291" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE291" s="8"/>
+    </row>
+    <row r="292" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE292" s="8"/>
+    </row>
+    <row r="293" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE293" s="8"/>
+    </row>
+    <row r="294" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE294" s="8"/>
+    </row>
+    <row r="295" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE295" s="8"/>
+    </row>
+    <row r="296" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE296" s="8"/>
+    </row>
+    <row r="297" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE297" s="8"/>
+    </row>
+    <row r="298" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE298" s="8"/>
+    </row>
+    <row r="299" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE299" s="8"/>
+    </row>
+    <row r="300" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE300" s="8"/>
+    </row>
+    <row r="301" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE301" s="8"/>
+    </row>
+    <row r="302" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE302" s="8"/>
+    </row>
+    <row r="303" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE303" s="8"/>
+    </row>
+    <row r="304" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE304" s="8"/>
+    </row>
+    <row r="305" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE305" s="8"/>
+    </row>
+    <row r="306" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE306" s="8"/>
+    </row>
+    <row r="307" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE307" s="8"/>
+    </row>
+    <row r="308" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE308" s="8"/>
+    </row>
+    <row r="309" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE309" s="8"/>
+    </row>
+    <row r="310" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE310" s="8"/>
+    </row>
+    <row r="311" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE311" s="8"/>
+    </row>
+    <row r="312" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE312" s="8"/>
+    </row>
+    <row r="313" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE313" s="8"/>
+    </row>
+    <row r="314" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE314" s="8"/>
+    </row>
+    <row r="315" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE315" s="8"/>
+    </row>
+    <row r="316" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE316" s="8"/>
+    </row>
+    <row r="317" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE317" s="8"/>
+    </row>
+    <row r="318" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE318" s="8"/>
+    </row>
+    <row r="319" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE319" s="8"/>
+    </row>
+    <row r="320" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE320" s="8"/>
+    </row>
+    <row r="321" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE321" s="8"/>
+    </row>
+    <row r="322" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE322" s="8"/>
+    </row>
+    <row r="323" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE323" s="8"/>
+    </row>
+    <row r="324" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE324" s="8"/>
+    </row>
+    <row r="325" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE325" s="8"/>
+    </row>
+    <row r="326" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE326" s="8"/>
+    </row>
+    <row r="327" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE327" s="8"/>
+    </row>
+    <row r="328" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE328" s="8"/>
+    </row>
+    <row r="329" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE329" s="8"/>
+    </row>
+    <row r="330" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE330" s="8"/>
+    </row>
+    <row r="331" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE331" s="8"/>
+    </row>
+    <row r="332" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE332" s="8"/>
+    </row>
+    <row r="333" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE333" s="8"/>
+    </row>
+    <row r="334" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE334" s="8"/>
+    </row>
+    <row r="335" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE335" s="8"/>
+    </row>
+    <row r="336" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE336" s="8"/>
+    </row>
+    <row r="337" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE337" s="8"/>
+    </row>
+    <row r="338" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE338" s="8"/>
+    </row>
+    <row r="339" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE339" s="8"/>
+    </row>
+    <row r="340" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE340" s="8"/>
+    </row>
+    <row r="341" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE341" s="8"/>
+    </row>
+    <row r="342" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE342" s="8"/>
+    </row>
+    <row r="343" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE343" s="8"/>
+    </row>
+    <row r="344" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE344" s="8"/>
+    </row>
+    <row r="345" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE345" s="8"/>
+    </row>
+    <row r="346" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE346" s="8"/>
+    </row>
+    <row r="347" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE347" s="8"/>
+    </row>
+    <row r="348" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE348" s="8"/>
+    </row>
+    <row r="349" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE349" s="8"/>
+    </row>
+    <row r="350" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE350" s="8"/>
+    </row>
+    <row r="351" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE351" s="8"/>
+    </row>
+    <row r="352" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE352" s="8"/>
+    </row>
+    <row r="353" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE353" s="8"/>
+    </row>
+    <row r="354" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE354" s="8"/>
+    </row>
+    <row r="355" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE355" s="8"/>
+    </row>
+    <row r="356" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE356" s="8"/>
+    </row>
+    <row r="357" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE357" s="8"/>
+    </row>
+    <row r="358" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE358" s="8"/>
+    </row>
+    <row r="359" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE359" s="8"/>
+    </row>
+    <row r="360" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE360" s="8"/>
+    </row>
+    <row r="361" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE361" s="8"/>
+    </row>
+    <row r="362" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE362" s="8"/>
+    </row>
+    <row r="363" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE363" s="8"/>
+    </row>
+    <row r="364" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE364" s="8"/>
+    </row>
+    <row r="365" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE365" s="8"/>
+    </row>
+    <row r="366" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE366" s="8"/>
+    </row>
+    <row r="367" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE367" s="8"/>
+    </row>
+    <row r="368" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE368" s="8"/>
+    </row>
+    <row r="369" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE369" s="8"/>
+    </row>
+    <row r="370" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE370" s="8"/>
+    </row>
+    <row r="371" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE371" s="8"/>
+    </row>
+    <row r="372" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE372" s="8"/>
+    </row>
+    <row r="373" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE373" s="8"/>
+    </row>
+    <row r="374" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE374" s="8"/>
+    </row>
+    <row r="375" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE375" s="8"/>
+    </row>
+    <row r="376" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE376" s="8"/>
+    </row>
+    <row r="377" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE377" s="8"/>
+    </row>
+    <row r="378" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE378" s="8"/>
+    </row>
+    <row r="379" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE379" s="8"/>
+    </row>
+    <row r="380" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE380" s="8"/>
+    </row>
+    <row r="381" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE381" s="8"/>
+    </row>
+    <row r="382" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE382" s="8"/>
+    </row>
+    <row r="383" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE383" s="8"/>
+    </row>
+    <row r="384" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE384" s="8"/>
+    </row>
+    <row r="385" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE385" s="8"/>
+    </row>
+    <row r="386" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE386" s="8"/>
+    </row>
+    <row r="387" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE387" s="8"/>
+    </row>
+    <row r="388" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE388" s="8"/>
+    </row>
+    <row r="389" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE389" s="8"/>
+    </row>
+    <row r="390" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE390" s="8"/>
+    </row>
+    <row r="391" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE391" s="8"/>
+    </row>
+    <row r="392" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE392" s="8"/>
+    </row>
+    <row r="393" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE393" s="8"/>
+    </row>
+    <row r="394" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE394" s="8"/>
+    </row>
+    <row r="395" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE395" s="8"/>
+    </row>
+    <row r="396" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE396" s="8"/>
+    </row>
+    <row r="397" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE397" s="8"/>
+    </row>
+    <row r="398" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE398" s="8"/>
+    </row>
+    <row r="399" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE399" s="8"/>
+    </row>
+    <row r="400" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE400" s="8"/>
+    </row>
+    <row r="401" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE401" s="8"/>
+    </row>
+    <row r="402" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE402" s="8"/>
+    </row>
+    <row r="403" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE403" s="8"/>
+    </row>
+    <row r="404" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE404" s="8"/>
+    </row>
+    <row r="405" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE405" s="8"/>
+    </row>
+    <row r="406" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE406" s="8"/>
+    </row>
+    <row r="407" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE407" s="8"/>
+    </row>
+    <row r="408" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE408" s="8"/>
+    </row>
+    <row r="409" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE409" s="8"/>
+    </row>
+    <row r="410" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE410" s="8"/>
+    </row>
+    <row r="411" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE411" s="8"/>
+    </row>
+    <row r="412" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE412" s="8"/>
+    </row>
+    <row r="413" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE413" s="8"/>
+    </row>
+    <row r="414" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE414" s="8"/>
+    </row>
+    <row r="415" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE415" s="8"/>
+    </row>
+    <row r="416" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE416" s="8"/>
+    </row>
+    <row r="417" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE417" s="8"/>
+    </row>
+    <row r="418" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE418" s="8"/>
+    </row>
+    <row r="419" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE419" s="8"/>
+    </row>
+    <row r="420" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE420" s="8"/>
+    </row>
+    <row r="421" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE421" s="8"/>
+    </row>
+    <row r="422" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE422" s="8"/>
+    </row>
+    <row r="423" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE423" s="8"/>
+    </row>
+    <row r="424" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE424" s="8"/>
+    </row>
+    <row r="425" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE425" s="8"/>
+    </row>
+    <row r="426" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE426" s="8"/>
+    </row>
+    <row r="427" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE427" s="8"/>
+    </row>
+    <row r="428" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE428" s="8"/>
+    </row>
+    <row r="429" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE429" s="8"/>
+    </row>
+    <row r="430" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE430" s="8"/>
+    </row>
+    <row r="431" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE431" s="8"/>
+    </row>
+    <row r="432" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE432" s="8"/>
+    </row>
+    <row r="433" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE433" s="8"/>
+    </row>
+    <row r="434" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE434" s="8"/>
+    </row>
+    <row r="435" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE435" s="8"/>
+    </row>
+    <row r="436" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE436" s="8"/>
+    </row>
+    <row r="437" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE437" s="8"/>
+    </row>
+    <row r="438" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE438" s="8"/>
+    </row>
+    <row r="439" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE439" s="8"/>
+    </row>
+    <row r="440" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE440" s="8"/>
+    </row>
+    <row r="441" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE441" s="8"/>
+    </row>
+    <row r="442" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE442" s="8"/>
+    </row>
+    <row r="443" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE443" s="8"/>
+    </row>
+    <row r="444" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE444" s="8"/>
+    </row>
+    <row r="445" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE445" s="8"/>
+    </row>
+    <row r="446" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE446" s="8"/>
+    </row>
+    <row r="447" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE447" s="8"/>
+    </row>
+    <row r="448" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE448" s="8"/>
+    </row>
+    <row r="449" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE449" s="8"/>
+    </row>
+    <row r="450" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE450" s="8"/>
+    </row>
+    <row r="451" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE451" s="8"/>
+    </row>
+    <row r="452" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE452" s="8"/>
+    </row>
+    <row r="453" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE453" s="8"/>
+    </row>
+    <row r="454" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE454" s="8"/>
+    </row>
+    <row r="455" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE455" s="8"/>
+    </row>
+    <row r="456" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE456" s="8"/>
+    </row>
+    <row r="457" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE457" s="8"/>
+    </row>
+    <row r="458" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE458" s="8"/>
+    </row>
+    <row r="459" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE459" s="8"/>
+    </row>
+    <row r="460" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE460" s="8"/>
+    </row>
+    <row r="461" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE461" s="8"/>
+    </row>
+    <row r="462" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE462" s="8"/>
+    </row>
+    <row r="463" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE463" s="8"/>
+    </row>
+    <row r="464" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE464" s="8"/>
+    </row>
+    <row r="465" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE465" s="8"/>
+    </row>
+    <row r="466" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE466" s="8"/>
+    </row>
+    <row r="467" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE467" s="8"/>
+    </row>
+    <row r="468" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE468" s="8"/>
+    </row>
+    <row r="469" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE469" s="8"/>
+    </row>
+    <row r="470" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE470" s="8"/>
+    </row>
+    <row r="471" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE471" s="8"/>
+    </row>
+    <row r="472" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE472" s="8"/>
+    </row>
+    <row r="473" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE473" s="8"/>
+    </row>
+    <row r="474" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE474" s="8"/>
+    </row>
+    <row r="475" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE475" s="8"/>
+    </row>
+    <row r="476" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE476" s="8"/>
+    </row>
+    <row r="477" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE477" s="8"/>
+    </row>
+    <row r="478" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE478" s="8"/>
+    </row>
+    <row r="479" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE479" s="8"/>
+    </row>
+    <row r="480" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE480" s="8"/>
+    </row>
+    <row r="481" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE481" s="8"/>
+    </row>
+    <row r="482" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE482" s="8"/>
+    </row>
+    <row r="483" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE483" s="8"/>
+    </row>
+    <row r="484" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE484" s="8"/>
+    </row>
+    <row r="485" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE485" s="8"/>
+    </row>
+    <row r="486" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE486" s="8"/>
+    </row>
+    <row r="487" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE487" s="8"/>
+    </row>
+    <row r="488" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE488" s="8"/>
+    </row>
+    <row r="489" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE489" s="8"/>
+    </row>
+    <row r="490" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE490" s="8"/>
+    </row>
+    <row r="491" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE491" s="8"/>
+    </row>
+    <row r="492" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE492" s="8"/>
+    </row>
+    <row r="493" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE493" s="8"/>
+    </row>
+    <row r="494" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE494" s="8"/>
+    </row>
+    <row r="495" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE495" s="8"/>
+    </row>
+    <row r="496" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE496" s="8"/>
+    </row>
+    <row r="497" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE497" s="8"/>
+    </row>
+    <row r="498" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE498" s="8"/>
+    </row>
+    <row r="499" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE499" s="8"/>
+    </row>
+    <row r="500" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE500" s="8"/>
+    </row>
+    <row r="501" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE501" s="8"/>
+    </row>
+    <row r="502" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE502" s="8"/>
+    </row>
+    <row r="503" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE503" s="8"/>
+    </row>
+    <row r="504" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE504" s="8"/>
+    </row>
+    <row r="505" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE505" s="8"/>
+    </row>
+    <row r="506" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE506" s="8"/>
+    </row>
+    <row r="507" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE507" s="8"/>
+    </row>
+    <row r="508" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE508" s="8"/>
+    </row>
+    <row r="509" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE509" s="8"/>
+    </row>
+    <row r="510" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE510" s="8"/>
+    </row>
+    <row r="511" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE511" s="8"/>
+    </row>
+    <row r="512" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE512" s="8"/>
+    </row>
+    <row r="513" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE513" s="8"/>
+    </row>
+    <row r="514" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE514" s="8"/>
+    </row>
+    <row r="515" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE515" s="8"/>
+    </row>
+    <row r="516" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE516" s="8"/>
+    </row>
+    <row r="517" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE517" s="8"/>
+    </row>
+    <row r="518" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE518" s="8"/>
+    </row>
+    <row r="519" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE519" s="8"/>
+    </row>
+    <row r="520" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE520" s="8"/>
+    </row>
+    <row r="521" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE521" s="8"/>
+    </row>
+    <row r="522" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE522" s="8"/>
+    </row>
+    <row r="523" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE523" s="8"/>
+    </row>
+    <row r="524" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE524" s="8"/>
+    </row>
+    <row r="525" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE525" s="8"/>
+    </row>
+    <row r="526" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE526" s="8"/>
+    </row>
+    <row r="527" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE527" s="8"/>
+    </row>
+    <row r="528" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE528" s="8"/>
+    </row>
+    <row r="529" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE529" s="8"/>
+    </row>
+    <row r="530" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE530" s="8"/>
+    </row>
+    <row r="531" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE531" s="8"/>
+    </row>
+    <row r="532" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE532" s="8"/>
+    </row>
+    <row r="533" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE533" s="8"/>
+    </row>
+    <row r="534" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE534" s="8"/>
+    </row>
+    <row r="535" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE535" s="8"/>
+    </row>
+    <row r="536" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE536" s="8"/>
+    </row>
+    <row r="537" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE537" s="8"/>
+    </row>
+    <row r="538" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE538" s="8"/>
+    </row>
+    <row r="539" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE539" s="8"/>
+    </row>
+    <row r="540" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE540" s="8"/>
+    </row>
+    <row r="541" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE541" s="8"/>
+    </row>
+    <row r="542" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE542" s="8"/>
+    </row>
+    <row r="543" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE543" s="8"/>
+    </row>
+    <row r="544" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE544" s="8"/>
+    </row>
+    <row r="545" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE545" s="8"/>
+    </row>
+    <row r="546" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE546" s="8"/>
+    </row>
+    <row r="547" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE547" s="8"/>
+    </row>
+    <row r="548" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE548" s="8"/>
+    </row>
+    <row r="549" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE549" s="8"/>
+    </row>
+    <row r="550" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE550" s="8"/>
+    </row>
+    <row r="551" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE551" s="8"/>
+    </row>
+    <row r="552" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE552" s="8"/>
+    </row>
+    <row r="553" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE553" s="8"/>
+    </row>
+    <row r="554" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE554" s="8"/>
+    </row>
+    <row r="555" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE555" s="8"/>
+    </row>
+    <row r="556" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE556" s="8"/>
+    </row>
+    <row r="557" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE557" s="8"/>
+    </row>
+    <row r="558" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE558" s="8"/>
+    </row>
+    <row r="559" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE559" s="8"/>
+    </row>
+    <row r="560" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE560" s="8"/>
+    </row>
+    <row r="561" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE561" s="8"/>
+    </row>
+    <row r="562" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE562" s="8"/>
+    </row>
+    <row r="563" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE563" s="8"/>
+    </row>
+    <row r="564" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE564" s="8"/>
+    </row>
+    <row r="565" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE565" s="8"/>
+    </row>
+    <row r="566" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE566" s="8"/>
+    </row>
+    <row r="567" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE567" s="8"/>
+    </row>
+    <row r="568" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE568" s="8"/>
+    </row>
+    <row r="569" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE569" s="8"/>
+    </row>
+    <row r="570" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE570" s="8"/>
+    </row>
+    <row r="571" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE571" s="8"/>
+    </row>
+    <row r="572" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE572" s="8"/>
+    </row>
+    <row r="573" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE573" s="8"/>
+    </row>
+    <row r="574" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE574" s="8"/>
+    </row>
+    <row r="575" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE575" s="8"/>
+    </row>
+    <row r="576" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE576" s="8"/>
+    </row>
+    <row r="577" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE577" s="8"/>
+    </row>
+    <row r="578" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE578" s="8"/>
+    </row>
+    <row r="579" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE579" s="8"/>
+    </row>
+    <row r="580" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE580" s="8"/>
+    </row>
+    <row r="581" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE581" s="8"/>
+    </row>
+    <row r="582" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE582" s="8"/>
+    </row>
+    <row r="583" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE583" s="8"/>
+    </row>
+    <row r="584" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE584" s="8"/>
+    </row>
+    <row r="585" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE585" s="8"/>
+    </row>
+    <row r="586" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE586" s="8"/>
+    </row>
+    <row r="587" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE587" s="8"/>
+    </row>
+    <row r="588" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE588" s="8"/>
+    </row>
+    <row r="589" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE589" s="8"/>
+    </row>
+    <row r="590" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE590" s="8"/>
+    </row>
+    <row r="591" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE591" s="8"/>
+    </row>
+    <row r="592" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE592" s="8"/>
+    </row>
+    <row r="593" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE593" s="8"/>
+    </row>
+    <row r="594" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE594" s="8"/>
+    </row>
+    <row r="595" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE595" s="8"/>
+    </row>
+    <row r="596" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE596" s="8"/>
+    </row>
+    <row r="597" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE597" s="8"/>
+    </row>
+    <row r="598" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE598" s="8"/>
+    </row>
+    <row r="599" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE599" s="8"/>
+    </row>
+    <row r="600" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE600" s="8"/>
+    </row>
+    <row r="601" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE601" s="8"/>
+    </row>
+    <row r="602" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE602" s="8"/>
+    </row>
+    <row r="603" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE603" s="8"/>
+    </row>
+    <row r="604" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE604" s="8"/>
+    </row>
+    <row r="605" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE605" s="8"/>
+    </row>
+    <row r="606" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE606" s="8"/>
+    </row>
+    <row r="607" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE607" s="8"/>
+    </row>
+    <row r="608" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE608" s="8"/>
+    </row>
+    <row r="609" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE609" s="8"/>
+    </row>
+    <row r="610" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE610" s="8"/>
+    </row>
+    <row r="611" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE611" s="8"/>
+    </row>
+    <row r="612" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE612" s="8"/>
+    </row>
+    <row r="613" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE613" s="8"/>
+    </row>
+    <row r="614" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE614" s="8"/>
+    </row>
+    <row r="615" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE615" s="8"/>
+    </row>
+    <row r="616" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE616" s="8"/>
+    </row>
+    <row r="617" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE617" s="8"/>
+    </row>
+    <row r="618" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE618" s="8"/>
+    </row>
+    <row r="619" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE619" s="8"/>
+    </row>
+    <row r="620" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE620" s="8"/>
+    </row>
+    <row r="621" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE621" s="8"/>
+    </row>
+    <row r="622" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE622" s="8"/>
+    </row>
+    <row r="623" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE623" s="8"/>
+    </row>
+    <row r="624" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE624" s="8"/>
+    </row>
+    <row r="625" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE625" s="8"/>
+    </row>
+    <row r="626" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE626" s="8"/>
+    </row>
+    <row r="627" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE627" s="8"/>
+    </row>
+    <row r="628" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE628" s="8"/>
+    </row>
+    <row r="629" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE629" s="8"/>
+    </row>
+    <row r="630" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE630" s="8"/>
+    </row>
+    <row r="631" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE631" s="8"/>
+    </row>
+    <row r="632" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE632" s="8"/>
+    </row>
+    <row r="633" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE633" s="8"/>
+    </row>
+    <row r="634" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE634" s="8"/>
+    </row>
+    <row r="635" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE635" s="8"/>
+    </row>
+    <row r="636" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE636" s="8"/>
+    </row>
+    <row r="637" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE637" s="8"/>
+    </row>
+    <row r="638" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE638" s="8"/>
+    </row>
+    <row r="639" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE639" s="8"/>
+    </row>
+    <row r="640" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE640" s="8"/>
+    </row>
+    <row r="641" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE641" s="8"/>
+    </row>
+    <row r="642" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE642" s="8"/>
+    </row>
+    <row r="643" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE643" s="8"/>
+    </row>
+    <row r="644" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE644" s="8"/>
+    </row>
+    <row r="645" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE645" s="8"/>
+    </row>
+    <row r="646" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE646" s="8"/>
+    </row>
+    <row r="647" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE647" s="8"/>
+    </row>
+    <row r="648" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE648" s="8"/>
+    </row>
+    <row r="649" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE649" s="8"/>
+    </row>
+    <row r="650" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE650" s="8"/>
+    </row>
+    <row r="651" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE651" s="8"/>
+    </row>
+    <row r="652" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE652" s="8"/>
+    </row>
+    <row r="653" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE653" s="8"/>
+    </row>
+    <row r="654" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE654" s="8"/>
+    </row>
+    <row r="655" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE655" s="8"/>
+    </row>
+    <row r="656" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE656" s="8"/>
+    </row>
+    <row r="657" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE657" s="8"/>
+    </row>
+    <row r="658" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE658" s="8"/>
+    </row>
+    <row r="659" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE659" s="8"/>
+    </row>
+    <row r="660" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE660" s="8"/>
+    </row>
+    <row r="661" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE661" s="8"/>
+    </row>
+    <row r="662" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE662" s="8"/>
+    </row>
+    <row r="663" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE663" s="8"/>
+    </row>
+    <row r="664" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE664" s="8"/>
+    </row>
+    <row r="665" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE665" s="8"/>
+    </row>
+    <row r="666" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE666" s="8"/>
+    </row>
+    <row r="667" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE667" s="8"/>
+    </row>
+    <row r="668" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE668" s="8"/>
+    </row>
+    <row r="669" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE669" s="8"/>
+    </row>
+    <row r="670" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE670" s="8"/>
+    </row>
+    <row r="671" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE671" s="8"/>
+    </row>
+    <row r="672" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE672" s="8"/>
+    </row>
+    <row r="673" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE673" s="8"/>
+    </row>
+    <row r="674" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE674" s="8"/>
+    </row>
+    <row r="675" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE675" s="8"/>
+    </row>
+    <row r="676" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE676" s="8"/>
+    </row>
+    <row r="677" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE677" s="8"/>
+    </row>
+    <row r="678" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE678" s="8"/>
+    </row>
+    <row r="679" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE679" s="8"/>
+    </row>
+    <row r="680" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE680" s="8"/>
+    </row>
+    <row r="681" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE681" s="8"/>
+    </row>
+    <row r="682" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE682" s="8"/>
+    </row>
+    <row r="683" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE683" s="8"/>
+    </row>
+    <row r="684" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE684" s="8"/>
+    </row>
+    <row r="685" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE685" s="8"/>
+    </row>
+    <row r="686" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE686" s="8"/>
+    </row>
+    <row r="687" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE687" s="8"/>
+    </row>
+    <row r="688" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE688" s="8"/>
+    </row>
+    <row r="689" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE689" s="8"/>
+    </row>
+    <row r="690" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE690" s="8"/>
+    </row>
+    <row r="691" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE691" s="8"/>
+    </row>
+    <row r="692" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE692" s="8"/>
+    </row>
+    <row r="693" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE693" s="8"/>
+    </row>
+    <row r="694" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE694" s="8"/>
+    </row>
+    <row r="695" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE695" s="8"/>
+    </row>
+    <row r="696" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE696" s="8"/>
+    </row>
+    <row r="697" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE697" s="8"/>
+    </row>
+    <row r="698" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE698" s="8"/>
+    </row>
+    <row r="699" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE699" s="8"/>
+    </row>
+    <row r="700" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE700" s="8"/>
+    </row>
+    <row r="701" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE701" s="8"/>
+    </row>
+    <row r="702" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE702" s="8"/>
+    </row>
+    <row r="703" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE703" s="8"/>
+    </row>
+    <row r="704" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE704" s="8"/>
+    </row>
+    <row r="705" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE705" s="8"/>
+    </row>
+    <row r="706" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE706" s="8"/>
+    </row>
+    <row r="707" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE707" s="8"/>
+    </row>
+    <row r="708" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE708" s="8"/>
+    </row>
+    <row r="709" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE709" s="8"/>
+    </row>
+    <row r="710" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE710" s="8"/>
+    </row>
+    <row r="711" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE711" s="8"/>
+    </row>
+    <row r="712" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE712" s="8"/>
+    </row>
+    <row r="713" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE713" s="8"/>
+    </row>
+    <row r="714" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE714" s="8"/>
+    </row>
+    <row r="715" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE715" s="8"/>
+    </row>
+    <row r="716" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE716" s="8"/>
+    </row>
+    <row r="717" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE717" s="8"/>
+    </row>
+    <row r="718" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE718" s="8"/>
+    </row>
+    <row r="719" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE719" s="8"/>
+    </row>
+    <row r="720" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE720" s="8"/>
+    </row>
+    <row r="721" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE721" s="8"/>
+    </row>
+    <row r="722" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE722" s="8"/>
+    </row>
+    <row r="723" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE723" s="8"/>
+    </row>
+    <row r="724" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE724" s="8"/>
+    </row>
+    <row r="725" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE725" s="8"/>
+    </row>
+    <row r="726" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE726" s="8"/>
+    </row>
+    <row r="727" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE727" s="8"/>
+    </row>
+    <row r="728" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE728" s="8"/>
+    </row>
+    <row r="729" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE729" s="8"/>
+    </row>
+    <row r="730" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE730" s="8"/>
+    </row>
+    <row r="731" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE731" s="8"/>
+    </row>
+    <row r="732" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE732" s="8"/>
+    </row>
+    <row r="733" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE733" s="8"/>
+    </row>
+    <row r="734" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE734" s="8"/>
+    </row>
+    <row r="735" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE735" s="8"/>
+    </row>
+    <row r="736" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE736" s="8"/>
+    </row>
+    <row r="737" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE737" s="8"/>
+    </row>
+    <row r="738" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE738" s="8"/>
+    </row>
+    <row r="739" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE739" s="8"/>
+    </row>
+    <row r="740" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE740" s="8"/>
+    </row>
+    <row r="741" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE741" s="8"/>
+    </row>
+    <row r="742" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE742" s="8"/>
+    </row>
+    <row r="743" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE743" s="8"/>
+    </row>
+    <row r="744" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE744" s="8"/>
+    </row>
+    <row r="745" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE745" s="8"/>
+    </row>
+    <row r="746" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE746" s="8"/>
+    </row>
+    <row r="747" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE747" s="8"/>
+    </row>
+    <row r="748" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE748" s="8"/>
+    </row>
+    <row r="749" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE749" s="8"/>
+    </row>
+    <row r="750" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE750" s="8"/>
+    </row>
+    <row r="751" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE751" s="8"/>
+    </row>
+    <row r="752" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE752" s="8"/>
+    </row>
+    <row r="753" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE753" s="8"/>
+    </row>
+    <row r="754" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE754" s="8"/>
+    </row>
+    <row r="755" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE755" s="8"/>
+    </row>
+    <row r="756" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE756" s="8"/>
+    </row>
+    <row r="757" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE757" s="8"/>
+    </row>
+    <row r="758" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE758" s="8"/>
+    </row>
+    <row r="759" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE759" s="8"/>
+    </row>
+    <row r="760" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE760" s="8"/>
+    </row>
+    <row r="761" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE761" s="8"/>
+    </row>
+    <row r="762" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE762" s="8"/>
+    </row>
+    <row r="763" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE763" s="8"/>
+    </row>
+    <row r="764" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE764" s="8"/>
+    </row>
+    <row r="765" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE765" s="8"/>
+    </row>
+    <row r="766" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE766" s="8"/>
+    </row>
+    <row r="767" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE767" s="8"/>
+    </row>
+    <row r="768" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE768" s="8"/>
+    </row>
+    <row r="769" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE769" s="8"/>
+    </row>
+    <row r="770" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE770" s="8"/>
+    </row>
+    <row r="771" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE771" s="8"/>
+    </row>
+    <row r="772" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE772" s="8"/>
+    </row>
+    <row r="773" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE773" s="8"/>
+    </row>
+    <row r="774" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE774" s="8"/>
+    </row>
+    <row r="775" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE775" s="8"/>
+    </row>
+    <row r="776" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE776" s="8"/>
+    </row>
+    <row r="777" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE777" s="8"/>
+    </row>
+    <row r="778" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE778" s="8"/>
+    </row>
+    <row r="779" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE779" s="8"/>
+    </row>
+    <row r="780" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE780" s="8"/>
+    </row>
+    <row r="781" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE781" s="8"/>
+    </row>
+    <row r="782" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE782" s="8"/>
+    </row>
+    <row r="783" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE783" s="8"/>
+    </row>
+    <row r="784" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE784" s="8"/>
+    </row>
+    <row r="785" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE785" s="8"/>
+    </row>
+    <row r="786" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE786" s="8"/>
+    </row>
+    <row r="787" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE787" s="8"/>
+    </row>
+    <row r="788" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE788" s="8"/>
+    </row>
+    <row r="789" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE789" s="8"/>
+    </row>
+    <row r="790" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE790" s="8"/>
+    </row>
+    <row r="791" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE791" s="8"/>
+    </row>
+    <row r="792" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE792" s="8"/>
+    </row>
+    <row r="793" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE793" s="8"/>
+    </row>
+    <row r="794" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE794" s="8"/>
+    </row>
+    <row r="795" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE795" s="8"/>
+    </row>
+    <row r="796" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE796" s="8"/>
+    </row>
+    <row r="797" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE797" s="8"/>
+    </row>
+    <row r="798" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE798" s="8"/>
+    </row>
+    <row r="799" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE799" s="8"/>
+    </row>
+    <row r="800" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE800" s="8"/>
+    </row>
+    <row r="801" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE801" s="8"/>
+    </row>
+    <row r="802" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE802" s="8"/>
+    </row>
+    <row r="803" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE803" s="8"/>
+    </row>
+    <row r="804" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE804" s="8"/>
+    </row>
+    <row r="805" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE805" s="8"/>
+    </row>
+    <row r="806" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE806" s="8"/>
+    </row>
+    <row r="807" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE807" s="8"/>
+    </row>
+    <row r="808" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE808" s="8"/>
+    </row>
+    <row r="809" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE809" s="8"/>
+    </row>
+    <row r="810" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE810" s="8"/>
+    </row>
+    <row r="811" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE811" s="8"/>
+    </row>
+    <row r="812" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE812" s="8"/>
+    </row>
+    <row r="813" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE813" s="8"/>
+    </row>
+    <row r="814" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE814" s="8"/>
+    </row>
+    <row r="815" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE815" s="8"/>
+    </row>
+    <row r="816" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE816" s="8"/>
+    </row>
+    <row r="817" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE817" s="8"/>
+    </row>
+    <row r="818" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE818" s="8"/>
+    </row>
+    <row r="819" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE819" s="8"/>
+    </row>
+    <row r="820" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE820" s="8"/>
+    </row>
+    <row r="821" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE821" s="8"/>
+    </row>
+    <row r="822" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE822" s="8"/>
+    </row>
+    <row r="823" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE823" s="8"/>
+    </row>
+    <row r="824" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE824" s="8"/>
+    </row>
+    <row r="825" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE825" s="8"/>
+    </row>
+    <row r="826" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE826" s="8"/>
+    </row>
+    <row r="827" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE827" s="8"/>
+    </row>
+    <row r="828" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE828" s="8"/>
+    </row>
+    <row r="829" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE829" s="8"/>
+    </row>
+    <row r="830" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE830" s="8"/>
+    </row>
+    <row r="831" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE831" s="8"/>
+    </row>
+    <row r="832" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE832" s="8"/>
+    </row>
+    <row r="833" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE833" s="8"/>
+    </row>
+    <row r="834" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE834" s="8"/>
+    </row>
+    <row r="835" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE835" s="8"/>
+    </row>
+    <row r="836" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE836" s="8"/>
+    </row>
+    <row r="837" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE837" s="8"/>
+    </row>
+    <row r="838" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE838" s="8"/>
+    </row>
+    <row r="839" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE839" s="8"/>
+    </row>
+    <row r="840" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE840" s="8"/>
+    </row>
+    <row r="841" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE841" s="8"/>
+    </row>
+    <row r="842" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE842" s="8"/>
+    </row>
+    <row r="843" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE843" s="8"/>
+    </row>
+    <row r="844" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE844" s="8"/>
+    </row>
+    <row r="845" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE845" s="8"/>
+    </row>
+    <row r="846" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE846" s="8"/>
+    </row>
+    <row r="847" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE847" s="8"/>
+    </row>
+    <row r="848" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE848" s="8"/>
+    </row>
+    <row r="849" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE849" s="8"/>
+    </row>
+    <row r="850" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE850" s="8"/>
+    </row>
+    <row r="851" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE851" s="8"/>
+    </row>
+    <row r="852" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE852" s="8"/>
+    </row>
+    <row r="853" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE853" s="8"/>
+    </row>
+    <row r="854" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE854" s="8"/>
+    </row>
+    <row r="855" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE855" s="8"/>
+    </row>
+    <row r="856" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE856" s="8"/>
+    </row>
+    <row r="857" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE857" s="8"/>
+    </row>
+    <row r="858" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE858" s="8"/>
+    </row>
+    <row r="859" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE859" s="8"/>
+    </row>
+    <row r="860" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE860" s="8"/>
+    </row>
+    <row r="861" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE861" s="8"/>
+    </row>
+    <row r="862" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE862" s="8"/>
+    </row>
+    <row r="863" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE863" s="8"/>
+    </row>
+    <row r="864" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE864" s="8"/>
+    </row>
+    <row r="865" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE865" s="8"/>
+    </row>
+    <row r="866" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE866" s="8"/>
+    </row>
+    <row r="867" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE867" s="8"/>
+    </row>
+    <row r="868" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE868" s="8"/>
+    </row>
+    <row r="869" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE869" s="8"/>
+    </row>
+    <row r="870" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE870" s="8"/>
+    </row>
+    <row r="871" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE871" s="8"/>
+    </row>
+    <row r="872" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE872" s="8"/>
+    </row>
+    <row r="873" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE873" s="8"/>
+    </row>
+    <row r="874" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE874" s="8"/>
+    </row>
+    <row r="875" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE875" s="8"/>
+    </row>
+    <row r="876" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE876" s="8"/>
+    </row>
+    <row r="877" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE877" s="8"/>
+    </row>
+    <row r="878" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE878" s="8"/>
+    </row>
+    <row r="879" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE879" s="8"/>
+    </row>
+    <row r="880" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE880" s="8"/>
+    </row>
+    <row r="881" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE881" s="8"/>
+    </row>
+    <row r="882" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE882" s="8"/>
+    </row>
+    <row r="883" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE883" s="8"/>
+    </row>
+    <row r="884" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE884" s="8"/>
+    </row>
+    <row r="885" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE885" s="8"/>
+    </row>
+    <row r="886" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE886" s="8"/>
+    </row>
+    <row r="887" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE887" s="8"/>
+    </row>
+    <row r="888" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE888" s="8"/>
+    </row>
+    <row r="889" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE889" s="8"/>
+    </row>
+    <row r="890" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE890" s="8"/>
+    </row>
+    <row r="891" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE891" s="8"/>
+    </row>
+    <row r="892" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE892" s="8"/>
+    </row>
+    <row r="893" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE893" s="8"/>
+    </row>
+    <row r="894" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE894" s="8"/>
+    </row>
+    <row r="895" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE895" s="8"/>
+    </row>
+    <row r="896" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE896" s="8"/>
+    </row>
+    <row r="897" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE897" s="8"/>
+    </row>
+    <row r="898" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE898" s="8"/>
+    </row>
+    <row r="899" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE899" s="8"/>
+    </row>
+    <row r="900" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE900" s="8"/>
+    </row>
+    <row r="901" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE901" s="8"/>
+    </row>
+    <row r="902" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE902" s="8"/>
+    </row>
+    <row r="903" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE903" s="8"/>
+    </row>
+    <row r="904" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE904" s="8"/>
+    </row>
+    <row r="905" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE905" s="8"/>
+    </row>
+    <row r="906" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE906" s="8"/>
+    </row>
+    <row r="907" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE907" s="8"/>
+    </row>
+    <row r="908" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE908" s="8"/>
+    </row>
+    <row r="909" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE909" s="8"/>
+    </row>
+    <row r="910" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE910" s="8"/>
+    </row>
+    <row r="911" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE911" s="8"/>
+    </row>
+    <row r="912" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE912" s="8"/>
+    </row>
+    <row r="913" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE913" s="8"/>
+    </row>
+    <row r="914" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE914" s="8"/>
+    </row>
+    <row r="915" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE915" s="8"/>
+    </row>
+    <row r="916" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE916" s="8"/>
+    </row>
+    <row r="917" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE917" s="8"/>
+    </row>
+    <row r="918" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE918" s="8"/>
+    </row>
+    <row r="919" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE919" s="8"/>
+    </row>
+    <row r="920" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE920" s="8"/>
+    </row>
+    <row r="921" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE921" s="8"/>
+    </row>
+    <row r="922" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE922" s="8"/>
+    </row>
+    <row r="923" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE923" s="8"/>
+    </row>
+    <row r="924" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE924" s="8"/>
+    </row>
+    <row r="925" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE925" s="8"/>
+    </row>
+    <row r="926" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE926" s="8"/>
+    </row>
+    <row r="927" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE927" s="8"/>
+    </row>
+    <row r="928" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE928" s="8"/>
+    </row>
+    <row r="929" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE929" s="8"/>
+    </row>
+    <row r="930" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE930" s="8"/>
+    </row>
+    <row r="931" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE931" s="8"/>
+    </row>
+    <row r="932" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE932" s="8"/>
+    </row>
+    <row r="933" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE933" s="8"/>
+    </row>
+    <row r="934" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE934" s="8"/>
+    </row>
+    <row r="935" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE935" s="8"/>
+    </row>
+    <row r="936" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE936" s="8"/>
+    </row>
+    <row r="937" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE937" s="8"/>
+    </row>
+    <row r="938" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE938" s="8"/>
+    </row>
+    <row r="939" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE939" s="8"/>
+    </row>
+    <row r="940" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE940" s="8"/>
+    </row>
+    <row r="941" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE941" s="8"/>
+    </row>
+    <row r="942" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE942" s="8"/>
+    </row>
+    <row r="943" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE943" s="8"/>
+    </row>
+    <row r="944" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE944" s="8"/>
+    </row>
+    <row r="945" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE945" s="8"/>
+    </row>
+    <row r="946" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE946" s="8"/>
+    </row>
+    <row r="947" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE947" s="8"/>
+    </row>
+    <row r="948" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE948" s="8"/>
+    </row>
+    <row r="949" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE949" s="8"/>
+    </row>
+    <row r="950" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE950" s="8"/>
+    </row>
+    <row r="951" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE951" s="8"/>
+    </row>
+    <row r="952" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE952" s="8"/>
+    </row>
+    <row r="953" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE953" s="8"/>
+    </row>
+    <row r="954" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE954" s="8"/>
+    </row>
+    <row r="955" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE955" s="8"/>
+    </row>
+    <row r="956" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE956" s="8"/>
+    </row>
+    <row r="957" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE957" s="8"/>
+    </row>
+    <row r="958" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE958" s="8"/>
+    </row>
+    <row r="959" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE959" s="8"/>
+    </row>
+    <row r="960" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE960" s="8"/>
+    </row>
+    <row r="961" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE961" s="8"/>
+    </row>
+    <row r="962" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE962" s="8"/>
+    </row>
+    <row r="963" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE963" s="8"/>
+    </row>
+    <row r="964" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE964" s="8"/>
+    </row>
+    <row r="965" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE965" s="8"/>
+    </row>
+    <row r="966" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE966" s="8"/>
+    </row>
+    <row r="967" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE967" s="8"/>
+    </row>
+    <row r="968" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE968" s="8"/>
+    </row>
+    <row r="969" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE969" s="8"/>
+    </row>
+    <row r="970" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE970" s="8"/>
+    </row>
+    <row r="971" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE971" s="8"/>
+    </row>
+    <row r="972" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE972" s="8"/>
+    </row>
+    <row r="973" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE973" s="8"/>
+    </row>
+    <row r="974" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE974" s="8"/>
+    </row>
+    <row r="975" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE975" s="8"/>
+    </row>
+    <row r="976" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE976" s="8"/>
+    </row>
+    <row r="977" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE977" s="8"/>
+    </row>
+    <row r="978" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE978" s="8"/>
+    </row>
+    <row r="979" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE979" s="8"/>
+    </row>
+    <row r="980" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE980" s="8"/>
+    </row>
+    <row r="981" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE981" s="8"/>
+    </row>
+    <row r="982" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE982" s="8"/>
+    </row>
+    <row r="983" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE983" s="8"/>
+    </row>
+    <row r="984" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE984" s="8"/>
+    </row>
+    <row r="985" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE985" s="8"/>
+    </row>
+    <row r="986" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE986" s="8"/>
+    </row>
+    <row r="987" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE987" s="8"/>
+    </row>
+    <row r="988" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE988" s="8"/>
+    </row>
+    <row r="989" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE989" s="8"/>
+    </row>
+    <row r="990" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE990" s="8"/>
+    </row>
+    <row r="991" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE991" s="8"/>
+    </row>
+    <row r="992" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE992" s="8"/>
+    </row>
+    <row r="993" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE993" s="8"/>
+    </row>
+    <row r="994" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE994" s="8"/>
+    </row>
+    <row r="995" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE995" s="8"/>
+    </row>
+    <row r="996" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE996" s="8"/>
+    </row>
+    <row r="997" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE997" s="8"/>
+    </row>
+    <row r="998" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE998" s="8"/>
+    </row>
+    <row r="999" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE999" s="8"/>
+    </row>
+    <row r="1000" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1000" s="8"/>
+    </row>
+    <row r="1001" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1001" s="8"/>
+    </row>
+    <row r="1002" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1002" s="8"/>
+    </row>
+    <row r="1003" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1003" s="8"/>
+    </row>
+    <row r="1004" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1004" s="8"/>
+    </row>
+    <row r="1005" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1005" s="8"/>
+    </row>
+    <row r="1006" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1006" s="8"/>
+    </row>
+    <row r="1007" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1007" s="8"/>
+    </row>
+    <row r="1008" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1008" s="8"/>
+    </row>
+    <row r="1009" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1009" s="8"/>
+    </row>
+    <row r="1010" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1010" s="8"/>
+    </row>
+    <row r="1011" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1011" s="8"/>
+    </row>
+    <row r="1012" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1012" s="8"/>
+    </row>
+    <row r="1013" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1013" s="8"/>
+    </row>
+    <row r="1014" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1014" s="8"/>
+    </row>
+    <row r="1015" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1015" s="8"/>
+    </row>
+    <row r="1016" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1016" s="8"/>
+    </row>
+    <row r="1017" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1017" s="8"/>
+    </row>
+    <row r="1018" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1018" s="8"/>
+    </row>
+    <row r="1019" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1019" s="8"/>
+    </row>
+    <row r="1020" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1020" s="8"/>
+    </row>
+    <row r="1021" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1021" s="8"/>
+    </row>
+    <row r="1022" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1022" s="8"/>
+    </row>
+    <row r="1023" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1023" s="8"/>
+    </row>
+    <row r="1024" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1024" s="8"/>
+    </row>
+    <row r="1025" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1025" s="8"/>
+    </row>
+    <row r="1026" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1026" s="8"/>
+    </row>
+    <row r="1027" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1027" s="8"/>
+    </row>
+    <row r="1028" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1028" s="8"/>
+    </row>
+    <row r="1029" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1029" s="8"/>
+    </row>
+    <row r="1030" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1030" s="8"/>
+    </row>
+    <row r="1031" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1031" s="8"/>
+    </row>
+    <row r="1032" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1032" s="8"/>
+    </row>
+    <row r="1033" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1033" s="8"/>
+    </row>
+    <row r="1034" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1034" s="8"/>
+    </row>
+    <row r="1035" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1035" s="8"/>
+    </row>
+    <row r="1036" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1036" s="8"/>
+    </row>
+    <row r="1037" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1037" s="8"/>
+    </row>
+    <row r="1038" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1038" s="8"/>
+    </row>
+    <row r="1039" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1039" s="8"/>
+    </row>
+    <row r="1040" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1040" s="8"/>
+    </row>
+    <row r="1041" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1041" s="8"/>
+    </row>
+    <row r="1042" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1042" s="8"/>
+    </row>
+    <row r="1043" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1043" s="8"/>
+    </row>
+    <row r="1044" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1044" s="8"/>
+    </row>
+    <row r="1045" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1045" s="8"/>
+    </row>
+    <row r="1046" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1046" s="8"/>
+    </row>
+    <row r="1047" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1047" s="8"/>
+    </row>
+    <row r="1048" spans="31:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AE1048" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/observeddata/Ebola_Incidence_Data.xlsx
+++ b/observeddata/Ebola_Incidence_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashok\Desktop\spatialEpisim2022\spatialEpisim\observeddata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\twhit957\Desktop\spatialEpisim\observeddata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1177E5F-740D-4B3F-B124-835C8B863A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F173EFFE-064B-4EB8-BEA5-F66000B24252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidence" sheetId="1" r:id="rId1"/>
@@ -553,43 +553,43 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="13" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -681,7 +681,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -5557,7 +5557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -6293,7 +6293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -6477,7 +6477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -6845,7 +6845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -7029,7 +7029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -7121,7 +7121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -7213,7 +7213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -7397,7 +7397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -7581,7 +7581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="6"/>
@@ -7613,7 +7613,7 @@
       <c r="AC77" s="6"/>
       <c r="AD77" s="6"/>
     </row>
-    <row r="78" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="6"/>
@@ -7645,7 +7645,7 @@
       <c r="AC78" s="6"/>
       <c r="AD78" s="6"/>
     </row>
-    <row r="79" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="6"/>
@@ -7677,7 +7677,7 @@
       <c r="AC79" s="6"/>
       <c r="AD79" s="6"/>
     </row>
-    <row r="80" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="6"/>
@@ -7709,7 +7709,7 @@
       <c r="AC80" s="6"/>
       <c r="AD80" s="6"/>
     </row>
-    <row r="81" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="6"/>
@@ -7741,7 +7741,7 @@
       <c r="AC81" s="6"/>
       <c r="AD81" s="6"/>
     </row>
-    <row r="82" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="6"/>
@@ -7773,7 +7773,7 @@
       <c r="AC82" s="6"/>
       <c r="AD82" s="6"/>
     </row>
-    <row r="83" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="6"/>
@@ -7805,7 +7805,7 @@
       <c r="AC83" s="6"/>
       <c r="AD83" s="6"/>
     </row>
-    <row r="84" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="6"/>
@@ -7837,7 +7837,7 @@
       <c r="AC84" s="6"/>
       <c r="AD84" s="6"/>
     </row>
-    <row r="85" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="6"/>
@@ -7869,7 +7869,7 @@
       <c r="AC85" s="6"/>
       <c r="AD85" s="6"/>
     </row>
-    <row r="86" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="6"/>
@@ -7901,7 +7901,7 @@
       <c r="AC86" s="6"/>
       <c r="AD86" s="6"/>
     </row>
-    <row r="87" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="6"/>
@@ -7933,7 +7933,7 @@
       <c r="AC87" s="6"/>
       <c r="AD87" s="6"/>
     </row>
-    <row r="88" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="6"/>
@@ -7965,7 +7965,7 @@
       <c r="AC88" s="6"/>
       <c r="AD88" s="6"/>
     </row>
-    <row r="89" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="6"/>
@@ -7997,7 +7997,7 @@
       <c r="AC89" s="6"/>
       <c r="AD89" s="6"/>
     </row>
-    <row r="90" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="6"/>
@@ -8029,7 +8029,7 @@
       <c r="AC90" s="6"/>
       <c r="AD90" s="6"/>
     </row>
-    <row r="91" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="6"/>
@@ -8061,7 +8061,7 @@
       <c r="AC91" s="6"/>
       <c r="AD91" s="6"/>
     </row>
-    <row r="92" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="6"/>
@@ -8093,7 +8093,7 @@
       <c r="AC92" s="6"/>
       <c r="AD92" s="6"/>
     </row>
-    <row r="93" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="6"/>
@@ -8125,7 +8125,7 @@
       <c r="AC93" s="6"/>
       <c r="AD93" s="6"/>
     </row>
-    <row r="94" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="6"/>
@@ -8157,7 +8157,7 @@
       <c r="AC94" s="6"/>
       <c r="AD94" s="6"/>
     </row>
-    <row r="95" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="6"/>
@@ -8189,7 +8189,7 @@
       <c r="AC95" s="6"/>
       <c r="AD95" s="6"/>
     </row>
-    <row r="96" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="6"/>
@@ -8221,7 +8221,7 @@
       <c r="AC96" s="6"/>
       <c r="AD96" s="6"/>
     </row>
-    <row r="97" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="6"/>
@@ -8253,7 +8253,7 @@
       <c r="AC97" s="6"/>
       <c r="AD97" s="6"/>
     </row>
-    <row r="98" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="6"/>
@@ -8285,7 +8285,7 @@
       <c r="AC98" s="6"/>
       <c r="AD98" s="6"/>
     </row>
-    <row r="99" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="6"/>
@@ -8317,7 +8317,7 @@
       <c r="AC99" s="6"/>
       <c r="AD99" s="6"/>
     </row>
-    <row r="100" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="6"/>

--- a/observeddata/Ebola_Incidence_Data.xlsx
+++ b/observeddata/Ebola_Incidence_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\twhit957\Desktop\spatialEpisim\observeddata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cupcake\Documents\MRU\Year 4\Winter\Senior Project\spatialEpisim\observeddata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F173EFFE-064B-4EB8-BEA5-F66000B24252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A16E4AE-D6AF-4BB4-B880-A0CF5DFC821A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Incidence" sheetId="1" r:id="rId1"/>
@@ -248,9 +248,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -288,7 +288,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -394,7 +394,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -536,7 +536,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -553,7 +553,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S2" sqref="S2"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>43682</v>
+        <v>43317</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>43689</v>
+        <v>43324</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>43697</v>
+        <v>43332</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>43703</v>
+        <v>43338</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>43710</v>
+        <v>43345</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>43717</v>
+        <v>43352</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
@@ -1238,7 +1238,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>43724</v>
+        <v>43359</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>43731</v>
+        <v>43366</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>43740</v>
+        <v>43375</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>43745</v>
+        <v>43380</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>43753</v>
+        <v>43388</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -1698,7 +1698,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>43759</v>
+        <v>43394</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
@@ -1790,7 +1790,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3">
-        <v>43766</v>
+        <v>43401</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
@@ -1882,7 +1882,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3">
-        <v>43773</v>
+        <v>43408</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3">
-        <v>43780</v>
+        <v>43415</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3">
-        <v>43788</v>
+        <v>43423</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
@@ -2158,7 +2158,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3">
-        <v>43795</v>
+        <v>43430</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3">
-        <v>43802</v>
+        <v>43437</v>
       </c>
       <c r="C19" s="2">
         <v>0</v>
@@ -2342,7 +2342,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3">
-        <v>43809</v>
+        <v>43444</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
@@ -2434,7 +2434,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3">
-        <v>43815</v>
+        <v>43450</v>
       </c>
       <c r="C21" s="2">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3">
-        <v>43824</v>
+        <v>43459</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
